--- a/ATC藥品分類設定檔_整併版_20260208.xlsx
+++ b/ATC藥品分類設定檔_整併版_20260208.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skh.SKHCORP\Desktop\NRICU\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F1E491B-37AD-4FC7-BA03-65EE4109746C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B093D92-576F-420A-844E-5BFA38391113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="22305" windowHeight="10410" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="22305" windowHeight="10410" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="料號ATC對照" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19382" uniqueCount="12146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19414" uniqueCount="12149">
   <si>
     <t>藥品料號</t>
   </si>
@@ -34466,6 +34466,9 @@
     <t>Fe-back 2%</t>
   </si>
   <si>
+    <t>B03AB05</t>
+  </si>
+  <si>
     <t>自動新增;出現33次;參考:無</t>
   </si>
   <si>
@@ -34610,6 +34613,9 @@
     <t>Alcos-anal ointment</t>
   </si>
   <si>
+    <t>C05AD</t>
+  </si>
+  <si>
     <t>自動新增;出現15次;參考:無</t>
   </si>
   <si>
@@ -36461,8 +36467,10 @@
     <t>自動新增;英文:Erythromycin oph. Oint;出現1次</t>
   </si>
   <si>
-    <t>1PIB01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>自動新增;英文:Morphine 15mg;出現40次</t>
+  </si>
+  <si>
+    <t>自動新增;英文:Codeine tab;出現5次</t>
   </si>
 </sst>
 </file>
@@ -61545,8 +61553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1403" workbookViewId="0">
-      <selection activeCell="R1419" sqref="R1419"/>
+    <sheetView tabSelected="1" topLeftCell="A646" workbookViewId="0">
+      <selection activeCell="C654" sqref="C654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -80800,6 +80808,9 @@
       <c r="F742" t="s">
         <v>8111</v>
       </c>
+      <c r="G742" t="s">
+        <v>563</v>
+      </c>
       <c r="J742" t="s">
         <v>4515</v>
       </c>
@@ -98248,7 +98259,7 @@
         <v>11406</v>
       </c>
       <c r="E1421" t="s">
-        <v>12145</v>
+        <v>3732</v>
       </c>
       <c r="F1421" t="s">
         <v>11407</v>
@@ -98373,6 +98384,9 @@
       <c r="F1427" t="s">
         <v>11431</v>
       </c>
+      <c r="G1427" t="s">
+        <v>563</v>
+      </c>
       <c r="J1427" t="s">
         <v>11432</v>
       </c>
@@ -98410,6 +98424,9 @@
       <c r="F1429" t="s">
         <v>11439</v>
       </c>
+      <c r="G1429" t="s">
+        <v>2592</v>
+      </c>
       <c r="J1429" t="s">
         <v>11440</v>
       </c>
@@ -98427,6 +98444,9 @@
       <c r="F1430" t="s">
         <v>11443</v>
       </c>
+      <c r="G1430" t="s">
+        <v>2808</v>
+      </c>
       <c r="J1430" t="s">
         <v>11444</v>
       </c>
@@ -98504,6 +98524,9 @@
       <c r="F1434" t="s">
         <v>11459</v>
       </c>
+      <c r="G1434" t="s">
+        <v>3259</v>
+      </c>
       <c r="J1434" t="s">
         <v>11460</v>
       </c>
@@ -98521,6 +98544,9 @@
       <c r="F1435" t="s">
         <v>11463</v>
       </c>
+      <c r="G1435" t="s">
+        <v>461</v>
+      </c>
       <c r="J1435" t="s">
         <v>11464</v>
       </c>
@@ -98558,6 +98584,9 @@
       <c r="F1437" t="s">
         <v>11471</v>
       </c>
+      <c r="G1437" t="s">
+        <v>3254</v>
+      </c>
       <c r="J1437" t="s">
         <v>11472</v>
       </c>
@@ -98595,886 +98624,931 @@
       <c r="F1439" t="s">
         <v>11479</v>
       </c>
+      <c r="G1439" t="s">
+        <v>11480</v>
+      </c>
       <c r="J1439" t="s">
-        <v>11480</v>
+        <v>11481</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
-        <v>11481</v>
+        <v>11482</v>
       </c>
       <c r="B1440" t="s">
-        <v>11482</v>
+        <v>11483</v>
       </c>
       <c r="D1440" t="s">
-        <v>11482</v>
+        <v>11483</v>
       </c>
       <c r="F1440" t="s">
-        <v>11483</v>
+        <v>11484</v>
       </c>
       <c r="G1440" t="s">
         <v>1082</v>
       </c>
       <c r="J1440" t="s">
-        <v>11484</v>
+        <v>11485</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>11485</v>
+        <v>11486</v>
       </c>
       <c r="B1441" t="s">
-        <v>11486</v>
+        <v>11487</v>
       </c>
       <c r="D1441" t="s">
-        <v>11486</v>
+        <v>11487</v>
       </c>
       <c r="F1441" t="s">
-        <v>11487</v>
+        <v>11488</v>
       </c>
       <c r="G1441" t="s">
         <v>366</v>
       </c>
       <c r="J1441" t="s">
-        <v>11488</v>
+        <v>11489</v>
       </c>
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
-        <v>11489</v>
+        <v>11490</v>
       </c>
       <c r="B1442" t="s">
-        <v>11490</v>
+        <v>11491</v>
       </c>
       <c r="D1442" t="s">
-        <v>11490</v>
+        <v>11491</v>
       </c>
       <c r="F1442" t="s">
-        <v>11491</v>
+        <v>11492</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>11480</v>
       </c>
       <c r="J1442" t="s">
-        <v>11492</v>
+        <v>11493</v>
       </c>
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
-        <v>11493</v>
+        <v>11494</v>
       </c>
       <c r="B1443" t="s">
-        <v>11494</v>
+        <v>11495</v>
       </c>
       <c r="D1443" t="s">
-        <v>11494</v>
+        <v>11495</v>
       </c>
       <c r="F1443" t="s">
-        <v>11495</v>
+        <v>11496</v>
       </c>
       <c r="G1443" t="s">
         <v>4032</v>
       </c>
       <c r="J1443" t="s">
-        <v>11496</v>
+        <v>11497</v>
       </c>
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
-        <v>11497</v>
+        <v>11498</v>
       </c>
       <c r="B1444" t="s">
-        <v>11498</v>
+        <v>11499</v>
       </c>
       <c r="D1444" t="s">
-        <v>11498</v>
+        <v>11499</v>
       </c>
       <c r="F1444" t="s">
-        <v>11499</v>
+        <v>11500</v>
       </c>
       <c r="G1444" t="s">
         <v>2381</v>
       </c>
       <c r="J1444" t="s">
-        <v>11500</v>
+        <v>11501</v>
       </c>
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>11501</v>
+        <v>11502</v>
       </c>
       <c r="B1445" t="s">
-        <v>11502</v>
+        <v>11503</v>
       </c>
       <c r="D1445" t="s">
-        <v>11502</v>
+        <v>11503</v>
       </c>
       <c r="F1445" t="s">
-        <v>11503</v>
+        <v>11504</v>
+      </c>
+      <c r="G1445" t="s">
+        <v>469</v>
       </c>
       <c r="J1445" t="s">
-        <v>11504</v>
+        <v>11505</v>
       </c>
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
-        <v>11505</v>
+        <v>11506</v>
       </c>
       <c r="B1446" t="s">
-        <v>11506</v>
+        <v>11507</v>
       </c>
       <c r="D1446" t="s">
-        <v>11506</v>
+        <v>11507</v>
       </c>
       <c r="F1446" t="s">
-        <v>11507</v>
+        <v>11508</v>
       </c>
       <c r="G1446" t="s">
         <v>113</v>
       </c>
       <c r="J1446" t="s">
-        <v>11508</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
-        <v>11509</v>
+        <v>11510</v>
       </c>
       <c r="B1447" t="s">
-        <v>11510</v>
+        <v>11511</v>
       </c>
       <c r="D1447" t="s">
-        <v>11510</v>
+        <v>11511</v>
       </c>
       <c r="F1447" t="s">
-        <v>11511</v>
+        <v>11512</v>
       </c>
       <c r="G1447" t="s">
         <v>784</v>
       </c>
       <c r="J1447" t="s">
-        <v>11512</v>
+        <v>11513</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
-        <v>11513</v>
+        <v>11514</v>
       </c>
       <c r="B1448" t="s">
-        <v>11514</v>
+        <v>11515</v>
       </c>
       <c r="D1448" t="s">
-        <v>11514</v>
+        <v>11515</v>
       </c>
       <c r="F1448" t="s">
-        <v>11515</v>
+        <v>11516</v>
       </c>
       <c r="G1448" t="s">
         <v>2467</v>
       </c>
       <c r="J1448" t="s">
-        <v>11516</v>
+        <v>11517</v>
       </c>
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>11517</v>
+        <v>11518</v>
       </c>
       <c r="B1449" t="s">
-        <v>11518</v>
+        <v>11519</v>
       </c>
       <c r="D1449" t="s">
-        <v>11518</v>
+        <v>11519</v>
       </c>
       <c r="F1449" t="s">
-        <v>11519</v>
+        <v>11520</v>
+      </c>
+      <c r="G1449" t="s">
+        <v>2962</v>
       </c>
       <c r="J1449" t="s">
-        <v>11520</v>
+        <v>11521</v>
       </c>
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
-        <v>11521</v>
+        <v>11522</v>
       </c>
       <c r="B1450" t="s">
-        <v>11522</v>
+        <v>11523</v>
       </c>
       <c r="D1450" t="s">
-        <v>11522</v>
+        <v>11523</v>
       </c>
       <c r="F1450" t="s">
-        <v>11523</v>
+        <v>11524</v>
       </c>
       <c r="G1450" t="s">
         <v>591</v>
       </c>
       <c r="J1450" t="s">
-        <v>11524</v>
+        <v>11525</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
-        <v>11525</v>
+        <v>11526</v>
       </c>
       <c r="B1451" t="s">
-        <v>11526</v>
+        <v>11527</v>
       </c>
       <c r="D1451" t="s">
-        <v>11526</v>
+        <v>11527</v>
       </c>
       <c r="F1451" t="s">
-        <v>11527</v>
+        <v>11528</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>11529</v>
       </c>
       <c r="J1451" t="s">
-        <v>11528</v>
+        <v>11530</v>
       </c>
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
-        <v>11529</v>
+        <v>11531</v>
       </c>
       <c r="B1452" t="s">
-        <v>11530</v>
+        <v>11532</v>
       </c>
       <c r="D1452" t="s">
-        <v>11530</v>
+        <v>11532</v>
       </c>
       <c r="F1452" t="s">
-        <v>11531</v>
+        <v>11533</v>
       </c>
       <c r="G1452" t="s">
         <v>2699</v>
       </c>
       <c r="J1452" t="s">
-        <v>11532</v>
+        <v>11534</v>
       </c>
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
-        <v>11533</v>
+        <v>11535</v>
       </c>
       <c r="B1453" t="s">
-        <v>11534</v>
+        <v>11536</v>
       </c>
       <c r="D1453" t="s">
-        <v>11534</v>
+        <v>11536</v>
       </c>
       <c r="F1453" t="s">
-        <v>11535</v>
+        <v>11537</v>
       </c>
       <c r="G1453" t="s">
         <v>2467</v>
       </c>
       <c r="J1453" t="s">
-        <v>11536</v>
+        <v>11538</v>
       </c>
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
-        <v>11537</v>
+        <v>11539</v>
       </c>
       <c r="B1454" t="s">
-        <v>11538</v>
+        <v>11540</v>
       </c>
       <c r="D1454" t="s">
-        <v>11538</v>
+        <v>11540</v>
       </c>
       <c r="F1454" t="s">
-        <v>11539</v>
+        <v>11541</v>
+      </c>
+      <c r="G1454" t="s">
+        <v>3552</v>
       </c>
       <c r="J1454" t="s">
-        <v>11540</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
-        <v>11541</v>
+        <v>11543</v>
       </c>
       <c r="B1455" t="s">
-        <v>11542</v>
+        <v>11544</v>
       </c>
       <c r="D1455" t="s">
-        <v>11542</v>
+        <v>11544</v>
       </c>
       <c r="F1455" t="s">
-        <v>11543</v>
+        <v>11545</v>
       </c>
       <c r="G1455" t="s">
         <v>2688</v>
       </c>
       <c r="J1455" t="s">
-        <v>11544</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
-        <v>11545</v>
+        <v>11547</v>
       </c>
       <c r="B1456" t="s">
-        <v>11546</v>
+        <v>11548</v>
       </c>
       <c r="D1456" t="s">
-        <v>11546</v>
+        <v>11548</v>
       </c>
       <c r="F1456" t="s">
-        <v>11547</v>
+        <v>11549</v>
       </c>
       <c r="G1456" t="s">
         <v>2534</v>
       </c>
       <c r="J1456" t="s">
-        <v>11548</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>11549</v>
+        <v>11551</v>
       </c>
       <c r="B1457" t="s">
-        <v>11550</v>
+        <v>11552</v>
       </c>
       <c r="D1457" t="s">
-        <v>11550</v>
+        <v>11552</v>
       </c>
       <c r="F1457" t="s">
-        <v>11551</v>
+        <v>11553</v>
       </c>
       <c r="G1457" t="s">
         <v>2878</v>
       </c>
       <c r="J1457" t="s">
-        <v>11552</v>
+        <v>11554</v>
       </c>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
-        <v>11553</v>
+        <v>11555</v>
       </c>
       <c r="B1458" t="s">
-        <v>11554</v>
+        <v>11556</v>
       </c>
       <c r="D1458" t="s">
-        <v>11554</v>
+        <v>11556</v>
       </c>
       <c r="F1458" t="s">
-        <v>11555</v>
+        <v>11557</v>
+      </c>
+      <c r="G1458" t="s">
+        <v>484</v>
       </c>
       <c r="J1458" t="s">
-        <v>11556</v>
+        <v>11558</v>
       </c>
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>11557</v>
+        <v>11559</v>
       </c>
       <c r="B1459" t="s">
-        <v>11558</v>
+        <v>11560</v>
       </c>
       <c r="D1459" t="s">
-        <v>11558</v>
+        <v>11560</v>
       </c>
       <c r="F1459" t="s">
-        <v>11559</v>
+        <v>11561</v>
       </c>
       <c r="G1459" t="s">
         <v>498</v>
       </c>
       <c r="J1459" t="s">
-        <v>11560</v>
+        <v>11562</v>
       </c>
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
-        <v>11561</v>
+        <v>11563</v>
       </c>
       <c r="B1460" t="s">
-        <v>11562</v>
+        <v>11564</v>
       </c>
       <c r="D1460" t="s">
-        <v>11562</v>
+        <v>11564</v>
       </c>
       <c r="F1460" t="s">
-        <v>11563</v>
+        <v>11565</v>
       </c>
       <c r="G1460" t="s">
         <v>755</v>
       </c>
       <c r="J1460" t="s">
-        <v>11564</v>
+        <v>11566</v>
       </c>
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
-        <v>11565</v>
+        <v>11567</v>
       </c>
       <c r="B1461" t="s">
-        <v>11566</v>
+        <v>11568</v>
       </c>
       <c r="D1461" t="s">
-        <v>11566</v>
+        <v>11568</v>
       </c>
       <c r="F1461" t="s">
-        <v>11567</v>
+        <v>11569</v>
+      </c>
+      <c r="G1461" t="s">
+        <v>3618</v>
       </c>
       <c r="J1461" t="s">
-        <v>11568</v>
+        <v>11570</v>
       </c>
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
-        <v>11569</v>
+        <v>11571</v>
       </c>
       <c r="B1462" t="s">
-        <v>11570</v>
+        <v>11572</v>
       </c>
       <c r="D1462" t="s">
-        <v>11570</v>
+        <v>11572</v>
       </c>
       <c r="F1462" t="s">
-        <v>11571</v>
+        <v>11573</v>
       </c>
       <c r="G1462" t="s">
         <v>1139</v>
       </c>
       <c r="J1462" t="s">
-        <v>11572</v>
+        <v>11574</v>
       </c>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>11573</v>
+        <v>11575</v>
       </c>
       <c r="B1463" t="s">
-        <v>11574</v>
+        <v>11576</v>
       </c>
       <c r="D1463" t="s">
-        <v>11574</v>
+        <v>11576</v>
       </c>
       <c r="F1463" t="s">
-        <v>11575</v>
+        <v>11577</v>
+      </c>
+      <c r="G1463" t="s">
+        <v>1368</v>
       </c>
       <c r="J1463" t="s">
-        <v>11576</v>
+        <v>11578</v>
       </c>
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
-        <v>11577</v>
+        <v>11579</v>
       </c>
       <c r="B1464" t="s">
+        <v>11580</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>11580</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>11581</v>
+      </c>
+      <c r="G1464" t="s">
+        <v>3866</v>
+      </c>
+      <c r="J1464" t="s">
         <v>11578</v>
-      </c>
-      <c r="D1464" t="s">
-        <v>11578</v>
-      </c>
-      <c r="F1464" t="s">
-        <v>11579</v>
-      </c>
-      <c r="J1464" t="s">
-        <v>11576</v>
       </c>
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>11580</v>
+        <v>11582</v>
       </c>
       <c r="B1465" t="s">
-        <v>11581</v>
+        <v>11583</v>
       </c>
       <c r="D1465" t="s">
-        <v>11581</v>
+        <v>11583</v>
       </c>
       <c r="F1465" t="s">
-        <v>11582</v>
+        <v>11584</v>
+      </c>
+      <c r="G1465" t="s">
+        <v>2513</v>
       </c>
       <c r="J1465" t="s">
-        <v>11583</v>
+        <v>11585</v>
       </c>
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
-        <v>11584</v>
+        <v>11586</v>
       </c>
       <c r="B1466" t="s">
-        <v>11585</v>
+        <v>11587</v>
       </c>
       <c r="D1466" t="s">
-        <v>11585</v>
+        <v>11587</v>
       </c>
       <c r="F1466" t="s">
-        <v>11586</v>
+        <v>11588</v>
       </c>
       <c r="G1466" t="s">
         <v>1898</v>
       </c>
       <c r="J1466" t="s">
-        <v>11587</v>
+        <v>11589</v>
       </c>
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
-        <v>11588</v>
+        <v>11590</v>
       </c>
       <c r="B1467" t="s">
-        <v>11589</v>
+        <v>11591</v>
       </c>
       <c r="D1467" t="s">
-        <v>11589</v>
+        <v>11591</v>
       </c>
       <c r="F1467" t="s">
-        <v>11590</v>
+        <v>11592</v>
       </c>
       <c r="G1467" t="s">
         <v>776</v>
       </c>
       <c r="J1467" t="s">
-        <v>11591</v>
+        <v>11593</v>
       </c>
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
-        <v>11592</v>
+        <v>11594</v>
       </c>
       <c r="B1468" t="s">
-        <v>11593</v>
+        <v>11595</v>
       </c>
       <c r="D1468" t="s">
-        <v>11593</v>
+        <v>11595</v>
       </c>
       <c r="F1468" t="s">
-        <v>11594</v>
+        <v>11596</v>
       </c>
       <c r="G1468" t="s">
         <v>1271</v>
       </c>
       <c r="J1468" t="s">
-        <v>11595</v>
+        <v>11597</v>
       </c>
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1469" t="s">
-        <v>11596</v>
+        <v>11598</v>
       </c>
       <c r="B1469" t="s">
-        <v>11597</v>
+        <v>11599</v>
       </c>
       <c r="D1469" t="s">
-        <v>11597</v>
+        <v>11599</v>
       </c>
       <c r="F1469" t="s">
-        <v>11598</v>
+        <v>11600</v>
       </c>
       <c r="G1469" t="s">
         <v>857</v>
       </c>
       <c r="J1469" t="s">
-        <v>11599</v>
+        <v>11601</v>
       </c>
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
-        <v>11600</v>
+        <v>11602</v>
       </c>
       <c r="B1470" t="s">
-        <v>11601</v>
+        <v>11603</v>
       </c>
       <c r="D1470" t="s">
-        <v>11601</v>
+        <v>11603</v>
       </c>
       <c r="F1470" t="s">
-        <v>11602</v>
+        <v>11604</v>
       </c>
       <c r="G1470" t="s">
         <v>2372</v>
       </c>
       <c r="J1470" t="s">
-        <v>11603</v>
+        <v>11605</v>
       </c>
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>11604</v>
+        <v>11606</v>
       </c>
       <c r="B1471" t="s">
-        <v>11605</v>
+        <v>11607</v>
       </c>
       <c r="D1471" t="s">
-        <v>11605</v>
+        <v>11607</v>
       </c>
       <c r="F1471" t="s">
-        <v>11606</v>
+        <v>11608</v>
+      </c>
+      <c r="G1471" t="s">
+        <v>2428</v>
       </c>
       <c r="J1471" t="s">
-        <v>11607</v>
+        <v>11609</v>
       </c>
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
-        <v>11608</v>
+        <v>11610</v>
       </c>
       <c r="B1472" t="s">
-        <v>11609</v>
+        <v>11611</v>
       </c>
       <c r="D1472" t="s">
-        <v>11609</v>
+        <v>11611</v>
       </c>
       <c r="F1472" t="s">
-        <v>11610</v>
+        <v>11612</v>
       </c>
       <c r="G1472" t="s">
         <v>1017</v>
       </c>
       <c r="J1472" t="s">
-        <v>11611</v>
+        <v>11613</v>
       </c>
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1473" t="s">
-        <v>11612</v>
+        <v>11614</v>
       </c>
       <c r="B1473" t="s">
-        <v>11613</v>
+        <v>11615</v>
       </c>
       <c r="D1473" t="s">
-        <v>11613</v>
+        <v>11615</v>
       </c>
       <c r="F1473" t="s">
-        <v>11614</v>
+        <v>11616</v>
       </c>
       <c r="G1473" t="s">
         <v>1985</v>
       </c>
       <c r="J1473" t="s">
-        <v>11615</v>
+        <v>11617</v>
       </c>
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
-        <v>11616</v>
+        <v>11618</v>
       </c>
       <c r="B1474" t="s">
-        <v>11617</v>
+        <v>11619</v>
       </c>
       <c r="D1474" t="s">
-        <v>11617</v>
+        <v>11619</v>
       </c>
       <c r="F1474" t="s">
-        <v>11618</v>
+        <v>11620</v>
       </c>
       <c r="G1474" t="s">
         <v>1439</v>
       </c>
       <c r="J1474" t="s">
-        <v>11619</v>
+        <v>11621</v>
       </c>
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
-        <v>11620</v>
+        <v>11622</v>
       </c>
       <c r="B1475" t="s">
-        <v>11621</v>
+        <v>11623</v>
       </c>
       <c r="D1475" t="s">
-        <v>11621</v>
+        <v>11623</v>
       </c>
       <c r="F1475" t="s">
-        <v>11622</v>
+        <v>11624</v>
       </c>
       <c r="G1475" t="s">
         <v>680</v>
       </c>
       <c r="J1475" t="s">
-        <v>11623</v>
+        <v>11625</v>
       </c>
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
-        <v>11624</v>
+        <v>11626</v>
       </c>
       <c r="B1476" t="s">
-        <v>11625</v>
+        <v>11627</v>
       </c>
       <c r="D1476" t="s">
-        <v>11625</v>
+        <v>11627</v>
       </c>
       <c r="F1476" t="s">
-        <v>11626</v>
+        <v>11628</v>
       </c>
       <c r="G1476" t="s">
         <v>3739</v>
       </c>
       <c r="J1476" t="s">
-        <v>11627</v>
+        <v>11629</v>
       </c>
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1477" t="s">
-        <v>11628</v>
+        <v>11630</v>
       </c>
       <c r="B1477" t="s">
-        <v>11629</v>
+        <v>11631</v>
       </c>
       <c r="D1477" t="s">
-        <v>11629</v>
+        <v>11631</v>
       </c>
       <c r="F1477" t="s">
-        <v>11630</v>
+        <v>11632</v>
+      </c>
+      <c r="G1477" t="s">
+        <v>670</v>
       </c>
       <c r="J1477" t="s">
-        <v>11631</v>
+        <v>11633</v>
       </c>
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
-        <v>11632</v>
+        <v>11634</v>
       </c>
       <c r="B1478" t="s">
-        <v>11633</v>
+        <v>11635</v>
       </c>
       <c r="D1478" t="s">
-        <v>11633</v>
+        <v>11635</v>
       </c>
       <c r="F1478" t="s">
-        <v>11634</v>
+        <v>11636</v>
       </c>
       <c r="G1478" t="s">
         <v>2028</v>
       </c>
       <c r="J1478" t="s">
-        <v>11635</v>
+        <v>11637</v>
       </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>11636</v>
+        <v>11638</v>
       </c>
       <c r="B1479" t="s">
-        <v>11637</v>
+        <v>11639</v>
       </c>
       <c r="D1479" t="s">
-        <v>11637</v>
+        <v>11639</v>
       </c>
       <c r="F1479" t="s">
-        <v>11638</v>
+        <v>11640</v>
+      </c>
+      <c r="G1479" t="s">
+        <v>4166</v>
       </c>
       <c r="J1479" t="s">
-        <v>11639</v>
+        <v>11641</v>
       </c>
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>11640</v>
+        <v>11642</v>
       </c>
       <c r="B1480" t="s">
-        <v>11641</v>
+        <v>11643</v>
       </c>
       <c r="D1480" t="s">
-        <v>11641</v>
+        <v>11643</v>
       </c>
       <c r="F1480" t="s">
-        <v>11642</v>
+        <v>11644</v>
       </c>
       <c r="G1480" t="s">
         <v>165</v>
       </c>
       <c r="J1480" t="s">
-        <v>11643</v>
+        <v>11645</v>
       </c>
     </row>
     <row r="1481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
-        <v>11644</v>
+        <v>11646</v>
       </c>
       <c r="B1481" t="s">
-        <v>11645</v>
+        <v>11647</v>
       </c>
       <c r="D1481" t="s">
-        <v>11645</v>
+        <v>11647</v>
       </c>
       <c r="F1481" t="s">
-        <v>11646</v>
+        <v>11648</v>
       </c>
       <c r="G1481" t="s">
         <v>208</v>
       </c>
       <c r="J1481" t="s">
-        <v>11647</v>
+        <v>11649</v>
       </c>
     </row>
     <row r="1482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
-        <v>11648</v>
+        <v>11650</v>
       </c>
       <c r="B1482" t="s">
-        <v>11649</v>
+        <v>11651</v>
       </c>
       <c r="D1482" t="s">
-        <v>11649</v>
+        <v>11651</v>
       </c>
       <c r="E1482">
         <v>129070</v>
       </c>
       <c r="F1482" t="s">
-        <v>11650</v>
+        <v>11652</v>
       </c>
       <c r="J1482" t="s">
-        <v>11651</v>
+        <v>11653</v>
       </c>
     </row>
     <row r="1483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1483" t="s">
-        <v>11652</v>
+        <v>11654</v>
       </c>
       <c r="B1483" t="s">
-        <v>11653</v>
+        <v>11655</v>
       </c>
       <c r="D1483" t="s">
-        <v>11653</v>
+        <v>11655</v>
       </c>
       <c r="F1483" t="s">
-        <v>11654</v>
+        <v>11656</v>
       </c>
       <c r="G1483" t="s">
         <v>2907</v>
       </c>
       <c r="J1483" t="s">
-        <v>11655</v>
+        <v>11657</v>
       </c>
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
-        <v>11656</v>
+        <v>11658</v>
       </c>
       <c r="B1484" t="s">
-        <v>11657</v>
+        <v>11659</v>
       </c>
       <c r="D1484" t="s">
-        <v>11657</v>
+        <v>11659</v>
       </c>
       <c r="F1484" t="s">
-        <v>11658</v>
+        <v>11660</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>2645</v>
       </c>
       <c r="J1484" t="s">
-        <v>11651</v>
+        <v>11653</v>
       </c>
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
-        <v>11659</v>
+        <v>11661</v>
       </c>
       <c r="B1485" t="s">
-        <v>11660</v>
+        <v>11662</v>
       </c>
       <c r="D1485" t="s">
-        <v>11660</v>
+        <v>11662</v>
       </c>
       <c r="F1485" t="s">
-        <v>11661</v>
+        <v>11663</v>
       </c>
       <c r="G1485" t="s">
         <v>1447</v>
       </c>
       <c r="J1485" t="s">
-        <v>11662</v>
+        <v>11664</v>
       </c>
     </row>
   </sheetData>
@@ -99485,7 +99559,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -99493,39 +99567,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11663</v>
+        <v>11665</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11664</v>
+        <v>11666</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11665</v>
+        <v>11667</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11666</v>
+        <v>11668</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11667</v>
+        <v>11669</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11668</v>
+        <v>11670</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11669</v>
+        <v>11671</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11670</v>
+        <v>11672</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11671</v>
+        <v>11673</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11672</v>
+        <v>11674</v>
       </c>
       <c r="B2" t="s">
-        <v>11673</v>
+        <v>11675</v>
       </c>
       <c r="C2" t="s">
         <v>4510</v>
@@ -99534,7 +99608,7 @@
         <v>4511</v>
       </c>
       <c r="E2" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F2" t="s">
         <v>4470</v>
@@ -99548,33 +99622,33 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11675</v>
+        <v>11677</v>
       </c>
       <c r="B3" t="s">
+        <v>11678</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11679</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11680</v>
+      </c>
+      <c r="E3" t="s">
         <v>11676</v>
       </c>
-      <c r="C3" t="s">
-        <v>11677</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11678</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11674</v>
-      </c>
       <c r="F3" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G3" t="s">
-        <v>11680</v>
+        <v>11682</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11681</v>
+        <v>11683</v>
       </c>
       <c r="B4" t="s">
-        <v>11682</v>
+        <v>11684</v>
       </c>
       <c r="C4" t="s">
         <v>4727</v>
@@ -99583,10 +99657,10 @@
         <v>4728</v>
       </c>
       <c r="E4" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F4" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G4" t="s">
         <v>3591</v>
@@ -99597,10 +99671,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11684</v>
+        <v>11686</v>
       </c>
       <c r="B5" t="s">
-        <v>11685</v>
+        <v>11687</v>
       </c>
       <c r="C5" t="s">
         <v>4742</v>
@@ -99609,10 +99683,10 @@
         <v>4743</v>
       </c>
       <c r="E5" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F5" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G5" t="s">
         <v>2827</v>
@@ -99623,22 +99697,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11687</v>
+        <v>11689</v>
       </c>
       <c r="B6" t="s">
-        <v>11688</v>
+        <v>11690</v>
       </c>
       <c r="C6" t="s">
         <v>4771</v>
       </c>
       <c r="D6" t="s">
-        <v>11689</v>
+        <v>11691</v>
       </c>
       <c r="E6" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F6" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G6" t="s">
         <v>4259</v>
@@ -99649,10 +99723,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11691</v>
+        <v>11693</v>
       </c>
       <c r="B7" t="s">
-        <v>11692</v>
+        <v>11694</v>
       </c>
       <c r="C7" t="s">
         <v>4786</v>
@@ -99661,10 +99735,10 @@
         <v>4787</v>
       </c>
       <c r="E7" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F7" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G7" t="s">
         <v>3724</v>
@@ -99675,10 +99749,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11693</v>
+        <v>11695</v>
       </c>
       <c r="B8" t="s">
-        <v>11694</v>
+        <v>11696</v>
       </c>
       <c r="C8" t="s">
         <v>4826</v>
@@ -99687,10 +99761,10 @@
         <v>4827</v>
       </c>
       <c r="E8" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F8" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G8" t="s">
         <v>2148</v>
@@ -99701,10 +99775,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11695</v>
+        <v>11697</v>
       </c>
       <c r="B9" t="s">
-        <v>11696</v>
+        <v>11698</v>
       </c>
       <c r="C9" t="s">
         <v>4841</v>
@@ -99713,10 +99787,10 @@
         <v>4842</v>
       </c>
       <c r="E9" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F9" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G9" t="s">
         <v>1933</v>
@@ -99727,10 +99801,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11697</v>
+        <v>11699</v>
       </c>
       <c r="B10" t="s">
-        <v>11698</v>
+        <v>11700</v>
       </c>
       <c r="C10" t="s">
         <v>4831</v>
@@ -99739,24 +99813,24 @@
         <v>4832</v>
       </c>
       <c r="E10" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F10" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G10" t="s">
         <v>1940</v>
       </c>
       <c r="H10" t="s">
-        <v>11699</v>
+        <v>11701</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11700</v>
+        <v>11702</v>
       </c>
       <c r="B11" t="s">
-        <v>11701</v>
+        <v>11703</v>
       </c>
       <c r="C11" t="s">
         <v>10334</v>
@@ -99765,10 +99839,10 @@
         <v>10335</v>
       </c>
       <c r="E11" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F11" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G11" t="s">
         <v>2167</v>
@@ -99779,10 +99853,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11702</v>
+        <v>11704</v>
       </c>
       <c r="B12" t="s">
-        <v>11703</v>
+        <v>11705</v>
       </c>
       <c r="C12" t="s">
         <v>4836</v>
@@ -99791,10 +99865,10 @@
         <v>4837</v>
       </c>
       <c r="E12" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F12" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G12" t="s">
         <v>2026</v>
@@ -99805,10 +99879,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11704</v>
+        <v>11706</v>
       </c>
       <c r="B13" t="s">
-        <v>11705</v>
+        <v>11707</v>
       </c>
       <c r="C13" t="s">
         <v>4866</v>
@@ -99817,7 +99891,7 @@
         <v>4867</v>
       </c>
       <c r="E13" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F13" t="s">
         <v>4470</v>
@@ -99831,10 +99905,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11706</v>
+        <v>11708</v>
       </c>
       <c r="B14" t="s">
-        <v>11707</v>
+        <v>11709</v>
       </c>
       <c r="C14" t="s">
         <v>4881</v>
@@ -99843,10 +99917,10 @@
         <v>4882</v>
       </c>
       <c r="E14" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F14" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G14" t="s">
         <v>3294</v>
@@ -99857,10 +99931,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11708</v>
+        <v>11710</v>
       </c>
       <c r="B15" t="s">
-        <v>11709</v>
+        <v>11711</v>
       </c>
       <c r="C15" t="s">
         <v>4915</v>
@@ -99869,10 +99943,10 @@
         <v>4916</v>
       </c>
       <c r="E15" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F15" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G15" t="s">
         <v>2601</v>
@@ -99883,10 +99957,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11710</v>
+        <v>11712</v>
       </c>
       <c r="B16" t="s">
-        <v>11711</v>
+        <v>11713</v>
       </c>
       <c r="C16" t="s">
         <v>4937</v>
@@ -99895,7 +99969,7 @@
         <v>4938</v>
       </c>
       <c r="E16" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F16" t="s">
         <v>4470</v>
@@ -99909,10 +99983,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11712</v>
+        <v>11714</v>
       </c>
       <c r="B17" t="s">
-        <v>11713</v>
+        <v>11715</v>
       </c>
       <c r="C17" t="s">
         <v>4982</v>
@@ -99921,10 +99995,10 @@
         <v>4983</v>
       </c>
       <c r="E17" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F17" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G17" t="s">
         <v>3644</v>
@@ -99935,10 +100009,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11714</v>
+        <v>11716</v>
       </c>
       <c r="B18" t="s">
-        <v>11715</v>
+        <v>11717</v>
       </c>
       <c r="C18" t="s">
         <v>5039</v>
@@ -99947,7 +100021,7 @@
         <v>5040</v>
       </c>
       <c r="E18" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F18" t="s">
         <v>4470</v>
@@ -99961,10 +100035,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11716</v>
+        <v>11718</v>
       </c>
       <c r="B19" t="s">
-        <v>11717</v>
+        <v>11719</v>
       </c>
       <c r="C19" t="s">
         <v>5222</v>
@@ -99973,10 +100047,10 @@
         <v>5223</v>
       </c>
       <c r="E19" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F19" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G19" t="s">
         <v>1967</v>
@@ -99987,10 +100061,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11718</v>
+        <v>11720</v>
       </c>
       <c r="B20" t="s">
-        <v>11719</v>
+        <v>11721</v>
       </c>
       <c r="C20" t="s">
         <v>5232</v>
@@ -99999,10 +100073,10 @@
         <v>5233</v>
       </c>
       <c r="E20" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F20" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G20" t="s">
         <v>3929</v>
@@ -100013,10 +100087,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11720</v>
+        <v>11722</v>
       </c>
       <c r="B21" t="s">
-        <v>11721</v>
+        <v>11723</v>
       </c>
       <c r="C21" t="s">
         <v>5227</v>
@@ -100025,10 +100099,10 @@
         <v>5228</v>
       </c>
       <c r="E21" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F21" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G21" t="s">
         <v>1073</v>
@@ -100039,10 +100113,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11722</v>
+        <v>11724</v>
       </c>
       <c r="B22" t="s">
-        <v>11723</v>
+        <v>11725</v>
       </c>
       <c r="C22" t="s">
         <v>5279</v>
@@ -100051,7 +100125,7 @@
         <v>5280</v>
       </c>
       <c r="E22" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F22" t="s">
         <v>4470</v>
@@ -100065,10 +100139,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11724</v>
+        <v>11726</v>
       </c>
       <c r="B23" t="s">
-        <v>11725</v>
+        <v>11727</v>
       </c>
       <c r="C23" t="s">
         <v>5289</v>
@@ -100077,10 +100151,10 @@
         <v>5290</v>
       </c>
       <c r="E23" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F23" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G23" t="s">
         <v>1958</v>
@@ -100091,10 +100165,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11726</v>
+        <v>11728</v>
       </c>
       <c r="B24" t="s">
-        <v>11727</v>
+        <v>11729</v>
       </c>
       <c r="C24" t="s">
         <v>5404</v>
@@ -100103,10 +100177,10 @@
         <v>5405</v>
       </c>
       <c r="E24" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F24" t="s">
-        <v>11728</v>
+        <v>11730</v>
       </c>
       <c r="G24" t="s">
         <v>895</v>
@@ -100117,10 +100191,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11729</v>
+        <v>11731</v>
       </c>
       <c r="B25" t="s">
-        <v>11730</v>
+        <v>11732</v>
       </c>
       <c r="C25" t="s">
         <v>5449</v>
@@ -100129,10 +100203,10 @@
         <v>5450</v>
       </c>
       <c r="E25" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F25" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G25" t="s">
         <v>3738</v>
@@ -100143,10 +100217,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11731</v>
+        <v>11733</v>
       </c>
       <c r="B26" t="s">
-        <v>11732</v>
+        <v>11734</v>
       </c>
       <c r="C26" t="s">
         <v>5608</v>
@@ -100155,7 +100229,7 @@
         <v>5609</v>
       </c>
       <c r="E26" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F26" t="s">
         <v>4470</v>
@@ -100169,10 +100243,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11733</v>
+        <v>11735</v>
       </c>
       <c r="B27" t="s">
-        <v>11734</v>
+        <v>11736</v>
       </c>
       <c r="C27" t="s">
         <v>5628</v>
@@ -100181,7 +100255,7 @@
         <v>5629</v>
       </c>
       <c r="E27" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F27" t="s">
         <v>4470</v>
@@ -100195,10 +100269,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11735</v>
+        <v>11737</v>
       </c>
       <c r="B28" t="s">
-        <v>11736</v>
+        <v>11738</v>
       </c>
       <c r="C28" t="s">
         <v>5638</v>
@@ -100207,7 +100281,7 @@
         <v>5639</v>
       </c>
       <c r="E28" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F28" t="s">
         <v>4470</v>
@@ -100221,10 +100295,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11737</v>
+        <v>11739</v>
       </c>
       <c r="B29" t="s">
-        <v>11738</v>
+        <v>11740</v>
       </c>
       <c r="C29" t="s">
         <v>5708</v>
@@ -100233,7 +100307,7 @@
         <v>5709</v>
       </c>
       <c r="E29" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F29" t="s">
         <v>4470</v>
@@ -100247,10 +100321,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11739</v>
+        <v>11741</v>
       </c>
       <c r="B30" t="s">
-        <v>11740</v>
+        <v>11742</v>
       </c>
       <c r="C30" t="s">
         <v>5782</v>
@@ -100259,10 +100333,10 @@
         <v>5783</v>
       </c>
       <c r="E30" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F30" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G30" t="s">
         <v>3210</v>
@@ -100273,22 +100347,22 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11569</v>
+        <v>11571</v>
       </c>
       <c r="B31" t="s">
-        <v>11741</v>
+        <v>11743</v>
       </c>
       <c r="C31" t="s">
         <v>5797</v>
       </c>
       <c r="D31" t="s">
-        <v>11742</v>
+        <v>11744</v>
       </c>
       <c r="E31" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F31" t="s">
-        <v>11743</v>
+        <v>11745</v>
       </c>
       <c r="G31" t="s">
         <v>1149</v>
@@ -100299,10 +100373,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11744</v>
+        <v>11746</v>
       </c>
       <c r="B32" t="s">
-        <v>11745</v>
+        <v>11747</v>
       </c>
       <c r="C32" t="s">
         <v>5827</v>
@@ -100311,36 +100385,36 @@
         <v>5828</v>
       </c>
       <c r="E32" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F32" t="s">
-        <v>11728</v>
+        <v>11730</v>
       </c>
       <c r="G32" t="s">
         <v>2983</v>
       </c>
       <c r="H32" t="s">
-        <v>11746</v>
+        <v>11748</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11747</v>
+        <v>11749</v>
       </c>
       <c r="B33" t="s">
-        <v>11748</v>
+        <v>11750</v>
       </c>
       <c r="C33" t="s">
         <v>5877</v>
       </c>
       <c r="D33" t="s">
-        <v>11749</v>
+        <v>11751</v>
       </c>
       <c r="E33" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F33" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G33" t="s">
         <v>4246</v>
@@ -100351,10 +100425,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11750</v>
+        <v>11752</v>
       </c>
       <c r="B34" t="s">
-        <v>11751</v>
+        <v>11753</v>
       </c>
       <c r="C34" t="s">
         <v>5911</v>
@@ -100363,10 +100437,10 @@
         <v>5912</v>
       </c>
       <c r="E34" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F34" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G34" t="s">
         <v>1720</v>
@@ -100377,10 +100451,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11752</v>
+        <v>11754</v>
       </c>
       <c r="B35" t="s">
-        <v>11753</v>
+        <v>11755</v>
       </c>
       <c r="C35" t="s">
         <v>5916</v>
@@ -100389,10 +100463,10 @@
         <v>5917</v>
       </c>
       <c r="E35" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F35" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G35" t="s">
         <v>1718</v>
@@ -100403,33 +100477,33 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11754</v>
+        <v>11756</v>
       </c>
       <c r="B36" t="s">
-        <v>11755</v>
+        <v>11757</v>
       </c>
       <c r="C36" t="s">
-        <v>11756</v>
+        <v>11758</v>
       </c>
       <c r="D36" t="s">
         <v>5936</v>
       </c>
       <c r="E36" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F36" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G36" t="s">
-        <v>11757</v>
+        <v>11759</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11758</v>
+        <v>11760</v>
       </c>
       <c r="B37" t="s">
-        <v>11759</v>
+        <v>11761</v>
       </c>
       <c r="C37" t="s">
         <v>5955</v>
@@ -100438,7 +100512,7 @@
         <v>5956</v>
       </c>
       <c r="E37" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F37" t="s">
         <v>4470</v>
@@ -100452,22 +100526,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11760</v>
+        <v>11762</v>
       </c>
       <c r="B38" t="s">
-        <v>11761</v>
+        <v>11763</v>
       </c>
       <c r="C38" t="s">
-        <v>11762</v>
+        <v>11764</v>
       </c>
       <c r="D38" t="s">
         <v>5966</v>
       </c>
       <c r="E38" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F38" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G38" t="s">
         <v>3756</v>
@@ -100478,10 +100552,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11763</v>
+        <v>11765</v>
       </c>
       <c r="B39" t="s">
-        <v>11764</v>
+        <v>11766</v>
       </c>
       <c r="C39" t="s">
         <v>6016</v>
@@ -100490,10 +100564,10 @@
         <v>6017</v>
       </c>
       <c r="E39" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F39" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G39" t="s">
         <v>2871</v>
@@ -100504,10 +100578,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>11765</v>
+        <v>11767</v>
       </c>
       <c r="B40" t="s">
-        <v>11766</v>
+        <v>11768</v>
       </c>
       <c r="C40" t="s">
         <v>6031</v>
@@ -100516,10 +100590,10 @@
         <v>6032</v>
       </c>
       <c r="E40" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F40" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G40" t="s">
         <v>3246</v>
@@ -100530,22 +100604,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>11767</v>
+        <v>11769</v>
       </c>
       <c r="B41" t="s">
-        <v>11768</v>
+        <v>11770</v>
       </c>
       <c r="C41" t="s">
-        <v>11769</v>
+        <v>11771</v>
       </c>
       <c r="D41" t="s">
-        <v>11770</v>
+        <v>11772</v>
       </c>
       <c r="E41" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F41" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G41" t="s">
         <v>3942</v>
@@ -100556,10 +100630,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11771</v>
+        <v>11773</v>
       </c>
       <c r="B42" t="s">
-        <v>11772</v>
+        <v>11774</v>
       </c>
       <c r="C42" t="s">
         <v>6137</v>
@@ -100568,10 +100642,10 @@
         <v>6138</v>
       </c>
       <c r="E42" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F42" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G42" t="s">
         <v>2892</v>
@@ -100582,10 +100656,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11773</v>
+        <v>11775</v>
       </c>
       <c r="B43" t="s">
-        <v>11774</v>
+        <v>11776</v>
       </c>
       <c r="C43" t="s">
         <v>6142</v>
@@ -100594,10 +100668,10 @@
         <v>6143</v>
       </c>
       <c r="E43" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F43" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G43" t="s">
         <v>2894</v>
@@ -100608,10 +100682,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11775</v>
+        <v>11777</v>
       </c>
       <c r="B44" t="s">
-        <v>11776</v>
+        <v>11778</v>
       </c>
       <c r="C44" t="s">
         <v>6197</v>
@@ -100620,10 +100694,10 @@
         <v>6198</v>
       </c>
       <c r="E44" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F44" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G44" t="s">
         <v>2000</v>
@@ -100634,10 +100708,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11777</v>
+        <v>11779</v>
       </c>
       <c r="B45" t="s">
-        <v>11778</v>
+        <v>11780</v>
       </c>
       <c r="C45" t="s">
         <v>6220</v>
@@ -100646,10 +100720,10 @@
         <v>6221</v>
       </c>
       <c r="E45" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F45" t="s">
-        <v>11743</v>
+        <v>11745</v>
       </c>
       <c r="G45" t="s">
         <v>3710</v>
@@ -100660,10 +100734,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11779</v>
+        <v>11781</v>
       </c>
       <c r="B46" t="s">
-        <v>11780</v>
+        <v>11782</v>
       </c>
       <c r="C46" t="s">
         <v>6280</v>
@@ -100672,10 +100746,10 @@
         <v>6281</v>
       </c>
       <c r="E46" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F46" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G46" t="s">
         <v>4280</v>
@@ -100686,10 +100760,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11781</v>
+        <v>11783</v>
       </c>
       <c r="B47" t="s">
-        <v>11782</v>
+        <v>11784</v>
       </c>
       <c r="C47" t="s">
         <v>6290</v>
@@ -100698,7 +100772,7 @@
         <v>6291</v>
       </c>
       <c r="E47" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F47" t="s">
         <v>4470</v>
@@ -100712,10 +100786,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11783</v>
+        <v>11785</v>
       </c>
       <c r="B48" t="s">
-        <v>11784</v>
+        <v>11786</v>
       </c>
       <c r="C48" t="s">
         <v>6295</v>
@@ -100724,10 +100798,10 @@
         <v>6296</v>
       </c>
       <c r="E48" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F48" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G48" t="s">
         <v>3247</v>
@@ -100738,10 +100812,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11785</v>
+        <v>11787</v>
       </c>
       <c r="B49" t="s">
-        <v>11786</v>
+        <v>11788</v>
       </c>
       <c r="C49" t="s">
         <v>6426</v>
@@ -100750,10 +100824,10 @@
         <v>6427</v>
       </c>
       <c r="E49" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F49" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G49" t="s">
         <v>2797</v>
@@ -100764,10 +100838,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11787</v>
+        <v>11789</v>
       </c>
       <c r="B50" t="s">
-        <v>11788</v>
+        <v>11790</v>
       </c>
       <c r="C50" t="s">
         <v>6421</v>
@@ -100776,10 +100850,10 @@
         <v>6422</v>
       </c>
       <c r="E50" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F50" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G50" t="s">
         <v>2803</v>
@@ -100790,10 +100864,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11789</v>
+        <v>11791</v>
       </c>
       <c r="B51" t="s">
-        <v>11790</v>
+        <v>11792</v>
       </c>
       <c r="C51" t="s">
         <v>6460</v>
@@ -100802,10 +100876,10 @@
         <v>6461</v>
       </c>
       <c r="E51" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F51" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G51" t="s">
         <v>924</v>
@@ -100816,10 +100890,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11791</v>
+        <v>11793</v>
       </c>
       <c r="B52" t="s">
-        <v>11792</v>
+        <v>11794</v>
       </c>
       <c r="C52" t="s">
         <v>6470</v>
@@ -100828,7 +100902,7 @@
         <v>6471</v>
       </c>
       <c r="E52" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F52" t="s">
         <v>4470</v>
@@ -100842,10 +100916,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11793</v>
+        <v>11795</v>
       </c>
       <c r="B53" t="s">
-        <v>11794</v>
+        <v>11796</v>
       </c>
       <c r="C53" t="s">
         <v>6494</v>
@@ -100854,10 +100928,10 @@
         <v>6495</v>
       </c>
       <c r="E53" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F53" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G53" t="s">
         <v>3549</v>
@@ -100868,33 +100942,33 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11795</v>
+        <v>11797</v>
       </c>
       <c r="B54" t="s">
-        <v>11796</v>
+        <v>11798</v>
       </c>
       <c r="C54" t="s">
-        <v>11797</v>
+        <v>11799</v>
       </c>
       <c r="D54" t="s">
-        <v>11798</v>
+        <v>11800</v>
       </c>
       <c r="E54" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F54" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G54" t="s">
-        <v>11799</v>
+        <v>11801</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11800</v>
+        <v>11802</v>
       </c>
       <c r="B55" t="s">
-        <v>11801</v>
+        <v>11803</v>
       </c>
       <c r="C55" t="s">
         <v>6542</v>
@@ -100903,10 +100977,10 @@
         <v>6543</v>
       </c>
       <c r="E55" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F55" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G55" t="s">
         <v>3249</v>
@@ -100917,10 +100991,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11802</v>
+        <v>11804</v>
       </c>
       <c r="B56" t="s">
-        <v>11803</v>
+        <v>11805</v>
       </c>
       <c r="C56" t="s">
         <v>6755</v>
@@ -100929,10 +101003,10 @@
         <v>6756</v>
       </c>
       <c r="E56" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F56" t="s">
-        <v>11743</v>
+        <v>11745</v>
       </c>
       <c r="G56" t="s">
         <v>872</v>
@@ -100943,10 +101017,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11804</v>
+        <v>11806</v>
       </c>
       <c r="B57" t="s">
-        <v>11805</v>
+        <v>11807</v>
       </c>
       <c r="C57" t="s">
         <v>6765</v>
@@ -100955,10 +101029,10 @@
         <v>6766</v>
       </c>
       <c r="E57" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F57" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G57" t="s">
         <v>793</v>
@@ -100969,10 +101043,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11806</v>
+        <v>11808</v>
       </c>
       <c r="B58" t="s">
-        <v>11807</v>
+        <v>11809</v>
       </c>
       <c r="C58" t="s">
         <v>6808</v>
@@ -100981,10 +101055,10 @@
         <v>6809</v>
       </c>
       <c r="E58" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F58" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G58" t="s">
         <v>1387</v>
@@ -100995,10 +101069,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11577</v>
+        <v>11579</v>
       </c>
       <c r="B59" t="s">
-        <v>11808</v>
+        <v>11810</v>
       </c>
       <c r="C59" t="s">
         <v>6833</v>
@@ -101007,10 +101081,10 @@
         <v>6834</v>
       </c>
       <c r="E59" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F59" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G59" t="s">
         <v>3867</v>
@@ -101021,10 +101095,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>11809</v>
+        <v>11811</v>
       </c>
       <c r="B60" t="s">
-        <v>11810</v>
+        <v>11812</v>
       </c>
       <c r="C60" t="s">
         <v>6902</v>
@@ -101033,10 +101107,10 @@
         <v>6903</v>
       </c>
       <c r="E60" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F60" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G60" t="s">
         <v>3130</v>
@@ -101047,19 +101121,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11811</v>
+        <v>11813</v>
       </c>
       <c r="B61" t="s">
-        <v>11812</v>
+        <v>11814</v>
       </c>
       <c r="C61" t="s">
         <v>6937</v>
       </c>
       <c r="D61" t="s">
-        <v>11813</v>
+        <v>11815</v>
       </c>
       <c r="E61" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F61" t="s">
         <v>4470</v>
@@ -101073,10 +101147,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>11814</v>
+        <v>11816</v>
       </c>
       <c r="B62" t="s">
-        <v>11815</v>
+        <v>11817</v>
       </c>
       <c r="C62" t="s">
         <v>6946</v>
@@ -101085,10 +101159,10 @@
         <v>6947</v>
       </c>
       <c r="E62" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F62" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G62" t="s">
         <v>2312</v>
@@ -101099,10 +101173,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>11816</v>
+        <v>11818</v>
       </c>
       <c r="B63" t="s">
-        <v>11817</v>
+        <v>11819</v>
       </c>
       <c r="C63" t="s">
         <v>6976</v>
@@ -101111,10 +101185,10 @@
         <v>6977</v>
       </c>
       <c r="E63" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F63" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G63" t="s">
         <v>871</v>
@@ -101125,22 +101199,22 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>11818</v>
+        <v>11820</v>
       </c>
       <c r="B64" t="s">
-        <v>11819</v>
+        <v>11821</v>
       </c>
       <c r="C64" t="s">
-        <v>11820</v>
+        <v>11822</v>
       </c>
       <c r="D64" t="s">
-        <v>11821</v>
+        <v>11823</v>
       </c>
       <c r="E64" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F64" t="s">
-        <v>11822</v>
+        <v>11824</v>
       </c>
       <c r="G64" t="s">
         <v>663</v>
@@ -101151,10 +101225,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11823</v>
+        <v>11825</v>
       </c>
       <c r="B65" t="s">
-        <v>11824</v>
+        <v>11826</v>
       </c>
       <c r="C65" t="s">
         <v>6961</v>
@@ -101163,10 +101237,10 @@
         <v>6962</v>
       </c>
       <c r="E65" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F65" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G65" t="s">
         <v>885</v>
@@ -101177,10 +101251,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11825</v>
+        <v>11827</v>
       </c>
       <c r="B66" t="s">
-        <v>11826</v>
+        <v>11828</v>
       </c>
       <c r="C66" t="s">
         <v>6995</v>
@@ -101189,10 +101263,10 @@
         <v>6996</v>
       </c>
       <c r="E66" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F66" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G66" t="s">
         <v>2253</v>
@@ -101203,10 +101277,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11827</v>
+        <v>11829</v>
       </c>
       <c r="B67" t="s">
-        <v>11828</v>
+        <v>11830</v>
       </c>
       <c r="C67" t="s">
         <v>7069</v>
@@ -101215,10 +101289,10 @@
         <v>7070</v>
       </c>
       <c r="E67" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F67" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G67" t="s">
         <v>1210</v>
@@ -101229,22 +101303,22 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11829</v>
+        <v>11831</v>
       </c>
       <c r="B68" t="s">
-        <v>11830</v>
+        <v>11832</v>
       </c>
       <c r="C68" t="s">
-        <v>11831</v>
+        <v>11833</v>
       </c>
       <c r="D68" t="s">
-        <v>11832</v>
+        <v>11834</v>
       </c>
       <c r="E68" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F68" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G68" t="s">
         <v>1039</v>
@@ -101255,10 +101329,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11833</v>
+        <v>11835</v>
       </c>
       <c r="B69" t="s">
-        <v>11834</v>
+        <v>11836</v>
       </c>
       <c r="C69" t="s">
         <v>7148</v>
@@ -101267,10 +101341,10 @@
         <v>7149</v>
       </c>
       <c r="E69" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F69" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G69" t="s">
         <v>2793</v>
@@ -101281,22 +101355,22 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>11835</v>
+        <v>11837</v>
       </c>
       <c r="B70" t="s">
-        <v>11836</v>
+        <v>11838</v>
       </c>
       <c r="C70" t="s">
-        <v>11837</v>
+        <v>11839</v>
       </c>
       <c r="D70" t="s">
-        <v>11838</v>
+        <v>11840</v>
       </c>
       <c r="E70" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F70" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G70" t="s">
         <v>2733</v>
@@ -101307,22 +101381,22 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>11839</v>
+        <v>11841</v>
       </c>
       <c r="B71" t="s">
-        <v>11840</v>
+        <v>11842</v>
       </c>
       <c r="C71" t="s">
-        <v>11841</v>
+        <v>11843</v>
       </c>
       <c r="D71" t="s">
         <v>7204</v>
       </c>
       <c r="E71" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F71" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G71" t="s">
         <v>858</v>
@@ -101333,10 +101407,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>11842</v>
+        <v>11844</v>
       </c>
       <c r="B72" t="s">
-        <v>11843</v>
+        <v>11845</v>
       </c>
       <c r="C72" t="s">
         <v>7227</v>
@@ -101345,7 +101419,7 @@
         <v>7228</v>
       </c>
       <c r="E72" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F72" t="s">
         <v>4470</v>
@@ -101359,10 +101433,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>11844</v>
+        <v>11846</v>
       </c>
       <c r="B73" t="s">
-        <v>11845</v>
+        <v>11847</v>
       </c>
       <c r="C73" t="s">
         <v>7322</v>
@@ -101371,10 +101445,10 @@
         <v>7323</v>
       </c>
       <c r="E73" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F73" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G73" t="s">
         <v>1223</v>
@@ -101385,10 +101459,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>11846</v>
+        <v>11848</v>
       </c>
       <c r="B74" t="s">
-        <v>11847</v>
+        <v>11849</v>
       </c>
       <c r="C74" t="s">
         <v>7337</v>
@@ -101397,10 +101471,10 @@
         <v>7338</v>
       </c>
       <c r="E74" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F74" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G74" t="s">
         <v>1487</v>
@@ -101411,10 +101485,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>11848</v>
+        <v>11850</v>
       </c>
       <c r="B75" t="s">
-        <v>11849</v>
+        <v>11851</v>
       </c>
       <c r="C75" t="s">
         <v>7362</v>
@@ -101423,10 +101497,10 @@
         <v>7363</v>
       </c>
       <c r="E75" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F75" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G75" t="s">
         <v>3576</v>
@@ -101437,10 +101511,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11850</v>
+        <v>11852</v>
       </c>
       <c r="B76" t="s">
-        <v>11851</v>
+        <v>11853</v>
       </c>
       <c r="C76" t="s">
         <v>7402</v>
@@ -101449,10 +101523,10 @@
         <v>7403</v>
       </c>
       <c r="E76" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F76" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G76" t="s">
         <v>4289</v>
@@ -101463,10 +101537,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>11852</v>
+        <v>11854</v>
       </c>
       <c r="B77" t="s">
-        <v>11853</v>
+        <v>11855</v>
       </c>
       <c r="C77" t="s">
         <v>7442</v>
@@ -101475,7 +101549,7 @@
         <v>7443</v>
       </c>
       <c r="E77" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F77" t="s">
         <v>4470</v>
@@ -101489,10 +101563,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11854</v>
+        <v>11856</v>
       </c>
       <c r="B78" t="s">
-        <v>11855</v>
+        <v>11857</v>
       </c>
       <c r="C78" t="s">
         <v>7447</v>
@@ -101501,7 +101575,7 @@
         <v>7448</v>
       </c>
       <c r="E78" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F78" t="s">
         <v>4470</v>
@@ -101515,22 +101589,22 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>11856</v>
+        <v>11858</v>
       </c>
       <c r="B79" t="s">
-        <v>11857</v>
+        <v>11859</v>
       </c>
       <c r="C79" t="s">
-        <v>11858</v>
+        <v>11860</v>
       </c>
       <c r="D79" t="s">
         <v>7457</v>
       </c>
       <c r="E79" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F79" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G79" t="s">
         <v>3904</v>
@@ -101541,10 +101615,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>11859</v>
+        <v>11861</v>
       </c>
       <c r="B80" t="s">
-        <v>11860</v>
+        <v>11862</v>
       </c>
       <c r="C80" t="s">
         <v>7538</v>
@@ -101553,7 +101627,7 @@
         <v>7539</v>
       </c>
       <c r="E80" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F80" t="s">
         <v>4470</v>
@@ -101567,10 +101641,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>11861</v>
+        <v>11863</v>
       </c>
       <c r="B81" t="s">
-        <v>11862</v>
+        <v>11864</v>
       </c>
       <c r="C81" t="s">
         <v>7694</v>
@@ -101579,7 +101653,7 @@
         <v>7695</v>
       </c>
       <c r="E81" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F81" t="s">
         <v>4470</v>
@@ -101588,15 +101662,15 @@
         <v>2522</v>
       </c>
       <c r="H81" t="s">
-        <v>11863</v>
+        <v>11865</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>11864</v>
+        <v>11866</v>
       </c>
       <c r="B82" t="s">
-        <v>11865</v>
+        <v>11867</v>
       </c>
       <c r="C82" t="s">
         <v>7709</v>
@@ -101605,7 +101679,7 @@
         <v>7710</v>
       </c>
       <c r="E82" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F82" t="s">
         <v>4470</v>
@@ -101614,15 +101688,15 @@
         <v>2545</v>
       </c>
       <c r="H82" t="s">
-        <v>11866</v>
+        <v>11868</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>11867</v>
+        <v>11869</v>
       </c>
       <c r="B83" t="s">
-        <v>11868</v>
+        <v>11870</v>
       </c>
       <c r="C83" t="s">
         <v>7719</v>
@@ -101631,10 +101705,10 @@
         <v>7720</v>
       </c>
       <c r="E83" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F83" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G83" t="s">
         <v>3613</v>
@@ -101645,48 +101719,48 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>11869</v>
+        <v>11871</v>
       </c>
       <c r="B84" t="s">
-        <v>11870</v>
+        <v>11872</v>
       </c>
       <c r="C84" t="s">
-        <v>11871</v>
+        <v>11873</v>
       </c>
       <c r="D84" t="s">
         <v>7725</v>
       </c>
       <c r="E84" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F84" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G84" t="s">
         <v>2989</v>
       </c>
       <c r="H84" t="s">
-        <v>11746</v>
+        <v>11748</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>11872</v>
+        <v>11874</v>
       </c>
       <c r="B85" t="s">
-        <v>11873</v>
+        <v>11875</v>
       </c>
       <c r="C85" t="s">
-        <v>11874</v>
+        <v>11876</v>
       </c>
       <c r="D85" t="s">
-        <v>11875</v>
+        <v>11877</v>
       </c>
       <c r="E85" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F85" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G85" t="s">
         <v>3836</v>
@@ -101697,10 +101771,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>11876</v>
+        <v>11878</v>
       </c>
       <c r="B86" t="s">
-        <v>11877</v>
+        <v>11879</v>
       </c>
       <c r="C86" t="s">
         <v>7796</v>
@@ -101709,10 +101783,10 @@
         <v>7797</v>
       </c>
       <c r="E86" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F86" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G86" t="s">
         <v>1033</v>
@@ -101723,10 +101797,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>11878</v>
+        <v>11880</v>
       </c>
       <c r="B87" t="s">
-        <v>11879</v>
+        <v>11881</v>
       </c>
       <c r="C87" t="s">
         <v>7867</v>
@@ -101735,10 +101809,10 @@
         <v>7868</v>
       </c>
       <c r="E87" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F87" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G87" t="s">
         <v>3120</v>
@@ -101749,10 +101823,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>11880</v>
+        <v>11882</v>
       </c>
       <c r="B88" t="s">
-        <v>11881</v>
+        <v>11883</v>
       </c>
       <c r="C88" t="s">
         <v>7962</v>
@@ -101761,10 +101835,10 @@
         <v>7963</v>
       </c>
       <c r="E88" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F88" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G88" t="s">
         <v>3614</v>
@@ -101775,10 +101849,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>11882</v>
+        <v>11884</v>
       </c>
       <c r="B89" t="s">
-        <v>11883</v>
+        <v>11885</v>
       </c>
       <c r="C89" t="s">
         <v>7982</v>
@@ -101787,10 +101861,10 @@
         <v>7983</v>
       </c>
       <c r="E89" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F89" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G89" t="s">
         <v>2864</v>
@@ -101801,10 +101875,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>11884</v>
+        <v>11886</v>
       </c>
       <c r="B90" t="s">
-        <v>11885</v>
+        <v>11887</v>
       </c>
       <c r="C90" t="s">
         <v>7997</v>
@@ -101813,10 +101887,10 @@
         <v>7998</v>
       </c>
       <c r="E90" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F90" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G90" t="s">
         <v>3265</v>
@@ -101827,33 +101901,33 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>11886</v>
+        <v>11888</v>
       </c>
       <c r="B91" t="s">
-        <v>11887</v>
+        <v>11889</v>
       </c>
       <c r="C91" t="s">
-        <v>11888</v>
+        <v>11890</v>
       </c>
       <c r="D91" t="s">
-        <v>11889</v>
+        <v>11891</v>
       </c>
       <c r="E91" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F91" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G91" t="s">
-        <v>11890</v>
+        <v>11892</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>11891</v>
+        <v>11893</v>
       </c>
       <c r="B92" t="s">
-        <v>11892</v>
+        <v>11894</v>
       </c>
       <c r="C92" t="s">
         <v>8045</v>
@@ -101862,7 +101936,7 @@
         <v>8046</v>
       </c>
       <c r="E92" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F92" t="s">
         <v>4470</v>
@@ -101876,10 +101950,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>11893</v>
+        <v>11895</v>
       </c>
       <c r="B93" t="s">
-        <v>11894</v>
+        <v>11896</v>
       </c>
       <c r="C93" t="s">
         <v>8101</v>
@@ -101888,10 +101962,10 @@
         <v>8102</v>
       </c>
       <c r="E93" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F93" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G93" t="s">
         <v>3661</v>
@@ -101902,10 +101976,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>11895</v>
+        <v>11897</v>
       </c>
       <c r="B94" t="s">
-        <v>11896</v>
+        <v>11898</v>
       </c>
       <c r="C94" t="s">
         <v>8141</v>
@@ -101914,10 +101988,10 @@
         <v>8142</v>
       </c>
       <c r="E94" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F94" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G94" t="s">
         <v>4209</v>
@@ -101928,10 +102002,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>11897</v>
+        <v>11899</v>
       </c>
       <c r="B95" t="s">
-        <v>11898</v>
+        <v>11900</v>
       </c>
       <c r="C95" t="s">
         <v>8171</v>
@@ -101940,10 +102014,10 @@
         <v>8172</v>
       </c>
       <c r="E95" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F95" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G95" t="s">
         <v>3268</v>
@@ -101954,10 +102028,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>11899</v>
+        <v>11901</v>
       </c>
       <c r="B96" t="s">
-        <v>11900</v>
+        <v>11902</v>
       </c>
       <c r="C96" t="s">
         <v>8278</v>
@@ -101966,7 +102040,7 @@
         <v>8279</v>
       </c>
       <c r="E96" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F96" t="s">
         <v>4470</v>
@@ -101980,22 +102054,22 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>11901</v>
+        <v>11903</v>
       </c>
       <c r="B97" t="s">
-        <v>11902</v>
+        <v>11904</v>
       </c>
       <c r="C97" t="s">
-        <v>11903</v>
+        <v>11905</v>
       </c>
       <c r="D97" t="s">
         <v>8312</v>
       </c>
       <c r="E97" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F97" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G97" t="s">
         <v>2071</v>
@@ -102006,10 +102080,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>11904</v>
+        <v>11906</v>
       </c>
       <c r="B98" t="s">
-        <v>11905</v>
+        <v>11907</v>
       </c>
       <c r="C98" t="s">
         <v>8326</v>
@@ -102018,10 +102092,10 @@
         <v>8327</v>
       </c>
       <c r="E98" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F98" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G98" t="s">
         <v>3665</v>
@@ -102032,10 +102106,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>11906</v>
+        <v>11908</v>
       </c>
       <c r="B99" t="s">
-        <v>11907</v>
+        <v>11909</v>
       </c>
       <c r="C99" t="s">
         <v>8331</v>
@@ -102044,10 +102118,10 @@
         <v>8332</v>
       </c>
       <c r="E99" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F99" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G99" t="s">
         <v>3666</v>
@@ -102058,33 +102132,33 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>11908</v>
+        <v>11910</v>
       </c>
       <c r="B100" t="s">
-        <v>11909</v>
+        <v>11911</v>
       </c>
       <c r="C100" t="s">
-        <v>11910</v>
+        <v>11912</v>
       </c>
       <c r="D100" t="s">
         <v>8337</v>
       </c>
       <c r="E100" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F100" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G100" t="s">
-        <v>11911</v>
+        <v>11913</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>11912</v>
+        <v>11914</v>
       </c>
       <c r="B101" t="s">
-        <v>11913</v>
+        <v>11915</v>
       </c>
       <c r="C101" t="s">
         <v>8400</v>
@@ -102093,10 +102167,10 @@
         <v>8401</v>
       </c>
       <c r="E101" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F101" t="s">
-        <v>11743</v>
+        <v>11745</v>
       </c>
       <c r="G101" t="s">
         <v>837</v>
@@ -102107,10 +102181,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>11914</v>
+        <v>11916</v>
       </c>
       <c r="B102" t="s">
-        <v>11915</v>
+        <v>11917</v>
       </c>
       <c r="C102" t="s">
         <v>8405</v>
@@ -102119,10 +102193,10 @@
         <v>8406</v>
       </c>
       <c r="E102" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F102" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G102" t="s">
         <v>2905</v>
@@ -102133,10 +102207,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>11916</v>
+        <v>11918</v>
       </c>
       <c r="B103" t="s">
-        <v>11917</v>
+        <v>11919</v>
       </c>
       <c r="C103" t="s">
         <v>8492</v>
@@ -102145,10 +102219,10 @@
         <v>8493</v>
       </c>
       <c r="E103" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F103" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G103" t="s">
         <v>3791</v>
@@ -102159,22 +102233,22 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>11918</v>
+        <v>11920</v>
       </c>
       <c r="B104" t="s">
-        <v>11919</v>
+        <v>11921</v>
       </c>
       <c r="C104" t="s">
-        <v>11920</v>
+        <v>11922</v>
       </c>
       <c r="D104" t="s">
-        <v>11921</v>
+        <v>11923</v>
       </c>
       <c r="E104" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F104" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G104" t="s">
         <v>472</v>
@@ -102185,10 +102259,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>11922</v>
+        <v>11924</v>
       </c>
       <c r="B105" t="s">
-        <v>11923</v>
+        <v>11925</v>
       </c>
       <c r="C105" t="s">
         <v>8561</v>
@@ -102197,10 +102271,10 @@
         <v>8562</v>
       </c>
       <c r="E105" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F105" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G105" t="s">
         <v>1670</v>
@@ -102211,10 +102285,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>11924</v>
+        <v>11926</v>
       </c>
       <c r="B106" t="s">
-        <v>11925</v>
+        <v>11927</v>
       </c>
       <c r="C106" t="s">
         <v>8663</v>
@@ -102223,7 +102297,7 @@
         <v>8664</v>
       </c>
       <c r="E106" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F106" t="s">
         <v>4470</v>
@@ -102234,10 +102308,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>11926</v>
+        <v>11928</v>
       </c>
       <c r="B107" t="s">
-        <v>11927</v>
+        <v>11929</v>
       </c>
       <c r="C107" t="s">
         <v>8730</v>
@@ -102246,10 +102320,10 @@
         <v>8731</v>
       </c>
       <c r="E107" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F107" t="s">
-        <v>11728</v>
+        <v>11730</v>
       </c>
       <c r="G107" t="s">
         <v>4204</v>
@@ -102260,10 +102334,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>11928</v>
+        <v>11930</v>
       </c>
       <c r="B108" t="s">
-        <v>11929</v>
+        <v>11931</v>
       </c>
       <c r="C108" t="s">
         <v>8828</v>
@@ -102272,10 +102346,10 @@
         <v>8829</v>
       </c>
       <c r="E108" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F108" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G108" t="s">
         <v>104</v>
@@ -102286,33 +102360,33 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>11930</v>
+        <v>11932</v>
       </c>
       <c r="B109" t="s">
-        <v>11931</v>
+        <v>11933</v>
       </c>
       <c r="C109" t="s">
-        <v>11932</v>
+        <v>11934</v>
       </c>
       <c r="D109" t="s">
-        <v>11933</v>
+        <v>11935</v>
       </c>
       <c r="E109" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F109" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G109" t="s">
-        <v>11934</v>
+        <v>11936</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>11935</v>
+        <v>11937</v>
       </c>
       <c r="B110" t="s">
-        <v>11936</v>
+        <v>11938</v>
       </c>
       <c r="C110" t="s">
         <v>9015</v>
@@ -102321,10 +102395,10 @@
         <v>9016</v>
       </c>
       <c r="E110" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F110" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G110" t="s">
         <v>2564</v>
@@ -102335,10 +102409,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>11937</v>
+        <v>11939</v>
       </c>
       <c r="B111" t="s">
-        <v>11938</v>
+        <v>11940</v>
       </c>
       <c r="C111" t="s">
         <v>9117</v>
@@ -102347,10 +102421,10 @@
         <v>9118</v>
       </c>
       <c r="E111" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F111" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G111" t="s">
         <v>3278</v>
@@ -102361,10 +102435,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>11939</v>
+        <v>11941</v>
       </c>
       <c r="B112" t="s">
-        <v>11940</v>
+        <v>11942</v>
       </c>
       <c r="C112" t="s">
         <v>9127</v>
@@ -102373,10 +102447,10 @@
         <v>9128</v>
       </c>
       <c r="E112" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F112" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G112" t="s">
         <v>3170</v>
@@ -102387,10 +102461,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>11941</v>
+        <v>11943</v>
       </c>
       <c r="B113" t="s">
-        <v>11942</v>
+        <v>11944</v>
       </c>
       <c r="C113" t="s">
         <v>9185</v>
@@ -102399,10 +102473,10 @@
         <v>9186</v>
       </c>
       <c r="E113" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F113" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G113" t="s">
         <v>1915</v>
@@ -102413,10 +102487,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>11943</v>
+        <v>11945</v>
       </c>
       <c r="B114" t="s">
-        <v>11944</v>
+        <v>11946</v>
       </c>
       <c r="C114" t="s">
         <v>9225</v>
@@ -102425,10 +102499,10 @@
         <v>9226</v>
       </c>
       <c r="E114" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F114" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G114" t="s">
         <v>4180</v>
@@ -102439,10 +102513,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>11945</v>
+        <v>11947</v>
       </c>
       <c r="B115" t="s">
-        <v>11946</v>
+        <v>11948</v>
       </c>
       <c r="C115" t="s">
         <v>9240</v>
@@ -102451,10 +102525,10 @@
         <v>9241</v>
       </c>
       <c r="E115" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F115" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G115" t="s">
         <v>2169</v>
@@ -102465,10 +102539,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>11947</v>
+        <v>11949</v>
       </c>
       <c r="B116" t="s">
-        <v>11948</v>
+        <v>11950</v>
       </c>
       <c r="C116" t="s">
         <v>9325</v>
@@ -102477,10 +102551,10 @@
         <v>9326</v>
       </c>
       <c r="E116" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F116" t="s">
-        <v>11949</v>
+        <v>11951</v>
       </c>
       <c r="G116" t="s">
         <v>4222</v>
@@ -102491,22 +102565,22 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>11950</v>
+        <v>11952</v>
       </c>
       <c r="B117" t="s">
-        <v>11951</v>
+        <v>11953</v>
       </c>
       <c r="C117" t="s">
-        <v>11952</v>
+        <v>11954</v>
       </c>
       <c r="D117" t="s">
-        <v>11953</v>
+        <v>11955</v>
       </c>
       <c r="E117" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F117" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G117" t="s">
         <v>1279</v>
@@ -102517,19 +102591,19 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>11954</v>
+        <v>11956</v>
       </c>
       <c r="B118" t="s">
-        <v>11955</v>
+        <v>11957</v>
       </c>
       <c r="C118" t="s">
-        <v>11956</v>
+        <v>11958</v>
       </c>
       <c r="D118" t="s">
         <v>9365</v>
       </c>
       <c r="E118" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F118" t="s">
         <v>4470</v>
@@ -102543,10 +102617,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>11957</v>
+        <v>11959</v>
       </c>
       <c r="B119" t="s">
-        <v>11958</v>
+        <v>11960</v>
       </c>
       <c r="C119" t="s">
         <v>9418</v>
@@ -102555,10 +102629,10 @@
         <v>9419</v>
       </c>
       <c r="E119" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F119" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G119" t="s">
         <v>2906</v>
@@ -102569,10 +102643,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>11959</v>
+        <v>11961</v>
       </c>
       <c r="B120" t="s">
-        <v>11960</v>
+        <v>11962</v>
       </c>
       <c r="C120" t="s">
         <v>9448</v>
@@ -102581,10 +102655,10 @@
         <v>9449</v>
       </c>
       <c r="E120" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F120" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G120" t="s">
         <v>3715</v>
@@ -102595,10 +102669,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>11961</v>
+        <v>11963</v>
       </c>
       <c r="B121" t="s">
-        <v>11962</v>
+        <v>11964</v>
       </c>
       <c r="C121" t="s">
         <v>9453</v>
@@ -102607,10 +102681,10 @@
         <v>9454</v>
       </c>
       <c r="E121" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F121" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G121" t="s">
         <v>2110</v>
@@ -102621,10 +102695,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>11963</v>
+        <v>11965</v>
       </c>
       <c r="B122" t="s">
-        <v>11964</v>
+        <v>11966</v>
       </c>
       <c r="C122" t="s">
         <v>9468</v>
@@ -102633,7 +102707,7 @@
         <v>9469</v>
       </c>
       <c r="E122" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F122" t="s">
         <v>4470</v>
@@ -102647,10 +102721,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>11965</v>
+        <v>11967</v>
       </c>
       <c r="B123" t="s">
-        <v>11966</v>
+        <v>11968</v>
       </c>
       <c r="C123" t="s">
         <v>9473</v>
@@ -102659,7 +102733,7 @@
         <v>9474</v>
       </c>
       <c r="E123" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F123" t="s">
         <v>4470</v>
@@ -102673,10 +102747,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>11967</v>
+        <v>11969</v>
       </c>
       <c r="B124" t="s">
-        <v>11968</v>
+        <v>11970</v>
       </c>
       <c r="C124" t="s">
         <v>9494</v>
@@ -102685,10 +102759,10 @@
         <v>9495</v>
       </c>
       <c r="E124" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F124" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G124" t="s">
         <v>3631</v>
@@ -102699,10 +102773,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>11969</v>
+        <v>11971</v>
       </c>
       <c r="B125" t="s">
-        <v>11970</v>
+        <v>11972</v>
       </c>
       <c r="C125" t="s">
         <v>9528</v>
@@ -102711,10 +102785,10 @@
         <v>9529</v>
       </c>
       <c r="E125" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F125" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G125" t="s">
         <v>1911</v>
@@ -102725,10 +102799,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>11971</v>
+        <v>11973</v>
       </c>
       <c r="B126" t="s">
-        <v>11972</v>
+        <v>11974</v>
       </c>
       <c r="C126" t="s">
         <v>9547</v>
@@ -102737,7 +102811,7 @@
         <v>9548</v>
       </c>
       <c r="E126" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F126" t="s">
         <v>4470</v>
@@ -102751,10 +102825,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>11973</v>
+        <v>11975</v>
       </c>
       <c r="B127" t="s">
-        <v>11974</v>
+        <v>11976</v>
       </c>
       <c r="C127" t="s">
         <v>9556</v>
@@ -102763,10 +102837,10 @@
         <v>9557</v>
       </c>
       <c r="E127" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F127" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G127" t="s">
         <v>4213</v>
@@ -102777,10 +102851,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>11975</v>
+        <v>11977</v>
       </c>
       <c r="B128" t="s">
-        <v>11976</v>
+        <v>11978</v>
       </c>
       <c r="C128" t="s">
         <v>9561</v>
@@ -102789,7 +102863,7 @@
         <v>9562</v>
       </c>
       <c r="E128" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F128" t="s">
         <v>4470</v>
@@ -102803,10 +102877,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>11977</v>
+        <v>11979</v>
       </c>
       <c r="B129" t="s">
-        <v>11978</v>
+        <v>11980</v>
       </c>
       <c r="C129" t="s">
         <v>9588</v>
@@ -102815,10 +102889,10 @@
         <v>9589</v>
       </c>
       <c r="E129" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F129" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G129" t="s">
         <v>2642</v>
@@ -102829,10 +102903,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>11979</v>
+        <v>11981</v>
       </c>
       <c r="B130" t="s">
-        <v>11980</v>
+        <v>11982</v>
       </c>
       <c r="C130" t="s">
         <v>9741</v>
@@ -102841,10 +102915,10 @@
         <v>9742</v>
       </c>
       <c r="E130" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F130" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G130" t="s">
         <v>4214</v>
@@ -102855,10 +102929,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>11981</v>
+        <v>11983</v>
       </c>
       <c r="B131" t="s">
-        <v>11982</v>
+        <v>11984</v>
       </c>
       <c r="C131" t="s">
         <v>9751</v>
@@ -102867,7 +102941,7 @@
         <v>9752</v>
       </c>
       <c r="E131" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F131" t="s">
         <v>4470</v>
@@ -102881,10 +102955,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>11983</v>
+        <v>11985</v>
       </c>
       <c r="B132" t="s">
-        <v>11984</v>
+        <v>11986</v>
       </c>
       <c r="C132" t="s">
         <v>9900</v>
@@ -102893,10 +102967,10 @@
         <v>9901</v>
       </c>
       <c r="E132" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F132" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G132" t="s">
         <v>2030</v>
@@ -102907,10 +102981,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>11985</v>
+        <v>11987</v>
       </c>
       <c r="B133" t="s">
-        <v>11986</v>
+        <v>11988</v>
       </c>
       <c r="C133" t="s">
         <v>9890</v>
@@ -102919,10 +102993,10 @@
         <v>9891</v>
       </c>
       <c r="E133" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F133" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G133" t="s">
         <v>2031</v>
@@ -102933,10 +103007,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>11987</v>
+        <v>11989</v>
       </c>
       <c r="B134" t="s">
-        <v>11988</v>
+        <v>11990</v>
       </c>
       <c r="C134" t="s">
         <v>9895</v>
@@ -102945,10 +103019,10 @@
         <v>9896</v>
       </c>
       <c r="E134" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F134" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G134" t="s">
         <v>2029</v>
@@ -102959,10 +103033,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>11989</v>
+        <v>11991</v>
       </c>
       <c r="B135" t="s">
-        <v>11990</v>
+        <v>11992</v>
       </c>
       <c r="C135" t="s">
         <v>9928</v>
@@ -102971,7 +103045,7 @@
         <v>9929</v>
       </c>
       <c r="E135" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F135" t="s">
         <v>4470</v>
@@ -102985,10 +103059,10 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>11991</v>
+        <v>11993</v>
       </c>
       <c r="B136" t="s">
-        <v>11992</v>
+        <v>11994</v>
       </c>
       <c r="C136" t="s">
         <v>9981</v>
@@ -102997,7 +103071,7 @@
         <v>9982</v>
       </c>
       <c r="E136" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F136" t="s">
         <v>4470</v>
@@ -103011,10 +103085,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>11993</v>
+        <v>11995</v>
       </c>
       <c r="B137" t="s">
-        <v>11994</v>
+        <v>11996</v>
       </c>
       <c r="C137" t="s">
         <v>10035</v>
@@ -103023,10 +103097,10 @@
         <v>10036</v>
       </c>
       <c r="E137" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F137" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G137" t="s">
         <v>2802</v>
@@ -103037,10 +103111,10 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>11995</v>
+        <v>11997</v>
       </c>
       <c r="B138" t="s">
-        <v>11996</v>
+        <v>11998</v>
       </c>
       <c r="C138" t="s">
         <v>10040</v>
@@ -103049,10 +103123,10 @@
         <v>10041</v>
       </c>
       <c r="E138" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F138" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G138" t="s">
         <v>3752</v>
@@ -103063,10 +103137,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>11997</v>
+        <v>11999</v>
       </c>
       <c r="B139" t="s">
-        <v>11998</v>
+        <v>12000</v>
       </c>
       <c r="C139" t="s">
         <v>10045</v>
@@ -103075,10 +103149,10 @@
         <v>10046</v>
       </c>
       <c r="E139" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F139" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G139" t="s">
         <v>3751</v>
@@ -103089,10 +103163,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>11999</v>
+        <v>12001</v>
       </c>
       <c r="B140" t="s">
-        <v>12000</v>
+        <v>12002</v>
       </c>
       <c r="C140" t="s">
         <v>10063</v>
@@ -103101,10 +103175,10 @@
         <v>10064</v>
       </c>
       <c r="E140" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F140" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G140" t="s">
         <v>3816</v>
@@ -103115,10 +103189,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>12001</v>
+        <v>12003</v>
       </c>
       <c r="B141" t="s">
-        <v>12002</v>
+        <v>12004</v>
       </c>
       <c r="C141" t="s">
         <v>10137</v>
@@ -103127,10 +103201,10 @@
         <v>10138</v>
       </c>
       <c r="E141" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F141" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G141" t="s">
         <v>466</v>
@@ -103141,10 +103215,10 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>12003</v>
+        <v>12005</v>
       </c>
       <c r="B142" t="s">
-        <v>12004</v>
+        <v>12006</v>
       </c>
       <c r="C142" t="s">
         <v>10142</v>
@@ -103153,10 +103227,10 @@
         <v>10143</v>
       </c>
       <c r="E142" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F142" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G142" t="s">
         <v>2663</v>
@@ -103167,10 +103241,10 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>12005</v>
+        <v>12007</v>
       </c>
       <c r="B143" t="s">
-        <v>12006</v>
+        <v>12008</v>
       </c>
       <c r="C143" t="s">
         <v>10177</v>
@@ -103179,10 +103253,10 @@
         <v>10178</v>
       </c>
       <c r="E143" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F143" t="s">
-        <v>11728</v>
+        <v>11730</v>
       </c>
       <c r="G143" t="s">
         <v>3293</v>
@@ -103193,10 +103267,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>12007</v>
+        <v>12009</v>
       </c>
       <c r="B144" t="s">
-        <v>12008</v>
+        <v>12010</v>
       </c>
       <c r="C144" t="s">
         <v>10395</v>
@@ -103205,10 +103279,10 @@
         <v>10396</v>
       </c>
       <c r="E144" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F144" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G144" t="s">
         <v>3962</v>
@@ -103219,10 +103293,10 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>12009</v>
+        <v>12011</v>
       </c>
       <c r="B145" t="s">
-        <v>12010</v>
+        <v>12012</v>
       </c>
       <c r="C145" t="s">
         <v>10441</v>
@@ -103231,10 +103305,10 @@
         <v>10442</v>
       </c>
       <c r="E145" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F145" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G145" t="s">
         <v>2917</v>
@@ -103245,10 +103319,10 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>12011</v>
+        <v>12013</v>
       </c>
       <c r="B146" t="s">
-        <v>12012</v>
+        <v>12014</v>
       </c>
       <c r="C146" t="s">
         <v>10455</v>
@@ -103257,10 +103331,10 @@
         <v>10456</v>
       </c>
       <c r="E146" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F146" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G146" t="s">
         <v>3303</v>
@@ -103271,19 +103345,19 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>11620</v>
+        <v>11622</v>
       </c>
       <c r="B147" t="s">
-        <v>12013</v>
+        <v>12015</v>
       </c>
       <c r="C147" t="s">
         <v>10460</v>
       </c>
       <c r="D147" t="s">
-        <v>12014</v>
+        <v>12016</v>
       </c>
       <c r="E147" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F147" t="s">
         <v>4470</v>
@@ -103297,22 +103371,22 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>12015</v>
+        <v>12017</v>
       </c>
       <c r="B148" t="s">
-        <v>12016</v>
+        <v>12018</v>
       </c>
       <c r="C148" t="s">
         <v>10490</v>
       </c>
       <c r="D148" t="s">
-        <v>12017</v>
+        <v>12019</v>
       </c>
       <c r="E148" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F148" t="s">
-        <v>11949</v>
+        <v>11951</v>
       </c>
       <c r="G148" t="s">
         <v>902</v>
@@ -103323,19 +103397,19 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>12018</v>
+        <v>12020</v>
       </c>
       <c r="B149" t="s">
-        <v>12019</v>
+        <v>12021</v>
       </c>
       <c r="C149" t="s">
-        <v>12020</v>
+        <v>12022</v>
       </c>
       <c r="D149" t="s">
-        <v>12021</v>
+        <v>12023</v>
       </c>
       <c r="E149" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F149" t="s">
         <v>4470</v>
@@ -103349,10 +103423,10 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>12022</v>
+        <v>12024</v>
       </c>
       <c r="B150" t="s">
-        <v>12023</v>
+        <v>12025</v>
       </c>
       <c r="C150" t="s">
         <v>10600</v>
@@ -103361,7 +103435,7 @@
         <v>10601</v>
       </c>
       <c r="E150" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F150" t="s">
         <v>4470</v>
@@ -103375,10 +103449,10 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>12024</v>
+        <v>12026</v>
       </c>
       <c r="B151" t="s">
-        <v>12025</v>
+        <v>12027</v>
       </c>
       <c r="C151" t="s">
         <v>11097</v>
@@ -103387,10 +103461,10 @@
         <v>11098</v>
       </c>
       <c r="E151" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F151" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G151" t="s">
         <v>2476</v>
@@ -103401,10 +103475,10 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>12026</v>
+        <v>12028</v>
       </c>
       <c r="B152" t="s">
-        <v>12027</v>
+        <v>12029</v>
       </c>
       <c r="C152" t="s">
         <v>10690</v>
@@ -103413,10 +103487,10 @@
         <v>10691</v>
       </c>
       <c r="E152" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F152" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G152" t="s">
         <v>2382</v>
@@ -103427,10 +103501,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>12028</v>
+        <v>12030</v>
       </c>
       <c r="B153" t="s">
-        <v>12029</v>
+        <v>12031</v>
       </c>
       <c r="C153" t="s">
         <v>10710</v>
@@ -103439,10 +103513,10 @@
         <v>10711</v>
       </c>
       <c r="E153" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F153" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G153" t="s">
         <v>4023</v>
@@ -103453,10 +103527,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>12030</v>
+        <v>12032</v>
       </c>
       <c r="B154" t="s">
-        <v>12031</v>
+        <v>12033</v>
       </c>
       <c r="C154" t="s">
         <v>10700</v>
@@ -103465,7 +103539,7 @@
         <v>10701</v>
       </c>
       <c r="E154" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F154" t="s">
         <v>4470</v>
@@ -103474,15 +103548,15 @@
         <v>1000</v>
       </c>
       <c r="H154" t="s">
-        <v>12032</v>
+        <v>12034</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>12033</v>
+        <v>12035</v>
       </c>
       <c r="B155" t="s">
-        <v>12034</v>
+        <v>12036</v>
       </c>
       <c r="C155" t="s">
         <v>10734</v>
@@ -103491,10 +103565,10 @@
         <v>10735</v>
       </c>
       <c r="E155" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F155" t="s">
-        <v>11949</v>
+        <v>11951</v>
       </c>
       <c r="G155" t="s">
         <v>4300</v>
@@ -103505,10 +103579,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>12035</v>
+        <v>12037</v>
       </c>
       <c r="B156" t="s">
-        <v>12036</v>
+        <v>12038</v>
       </c>
       <c r="C156" t="s">
         <v>10793</v>
@@ -103517,10 +103591,10 @@
         <v>10794</v>
       </c>
       <c r="E156" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F156" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G156" t="s">
         <v>855</v>
@@ -103531,10 +103605,10 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>12037</v>
+        <v>12039</v>
       </c>
       <c r="B157" t="s">
-        <v>12038</v>
+        <v>12040</v>
       </c>
       <c r="C157" t="s">
         <v>10804</v>
@@ -103543,7 +103617,7 @@
         <v>10805</v>
       </c>
       <c r="E157" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F157" t="s">
         <v>4470</v>
@@ -103557,22 +103631,22 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>12039</v>
+        <v>12041</v>
       </c>
       <c r="B158" t="s">
-        <v>12040</v>
+        <v>12042</v>
       </c>
       <c r="C158" t="s">
         <v>10854</v>
       </c>
       <c r="D158" t="s">
-        <v>12041</v>
+        <v>12043</v>
       </c>
       <c r="E158" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F158" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G158" t="s">
         <v>4306</v>
@@ -103583,10 +103657,10 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>12042</v>
+        <v>12044</v>
       </c>
       <c r="B159" t="s">
-        <v>12043</v>
+        <v>12045</v>
       </c>
       <c r="C159" t="s">
         <v>10849</v>
@@ -103595,10 +103669,10 @@
         <v>10850</v>
       </c>
       <c r="E159" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F159" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G159" t="s">
         <v>2395</v>
@@ -103609,22 +103683,22 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>12044</v>
+        <v>12046</v>
       </c>
       <c r="B160" t="s">
-        <v>12045</v>
+        <v>12047</v>
       </c>
       <c r="C160" t="s">
-        <v>12046</v>
+        <v>12048</v>
       </c>
       <c r="D160" t="s">
-        <v>12047</v>
+        <v>12049</v>
       </c>
       <c r="E160" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F160" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G160" t="s">
         <v>3642</v>
@@ -103635,10 +103709,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>12048</v>
+        <v>12050</v>
       </c>
       <c r="B161" t="s">
-        <v>12049</v>
+        <v>12051</v>
       </c>
       <c r="C161" t="s">
         <v>10939</v>
@@ -103647,10 +103721,10 @@
         <v>10940</v>
       </c>
       <c r="E161" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F161" t="s">
-        <v>11743</v>
+        <v>11745</v>
       </c>
       <c r="G161" t="s">
         <v>2795</v>
@@ -103661,10 +103735,10 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>12050</v>
+        <v>12052</v>
       </c>
       <c r="B162" t="s">
-        <v>12051</v>
+        <v>12053</v>
       </c>
       <c r="C162" t="s">
         <v>10959</v>
@@ -103673,10 +103747,10 @@
         <v>10960</v>
       </c>
       <c r="E162" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F162" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G162" t="s">
         <v>1860</v>
@@ -103687,10 +103761,10 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>12052</v>
+        <v>12054</v>
       </c>
       <c r="B163" t="s">
-        <v>12053</v>
+        <v>12055</v>
       </c>
       <c r="C163" t="s">
         <v>10973</v>
@@ -103699,10 +103773,10 @@
         <v>10974</v>
       </c>
       <c r="E163" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F163" t="s">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="G163" t="s">
         <v>3921</v>
@@ -103713,10 +103787,10 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>12054</v>
+        <v>12056</v>
       </c>
       <c r="B164" t="s">
-        <v>12055</v>
+        <v>12057</v>
       </c>
       <c r="C164" t="s">
         <v>10998</v>
@@ -103725,10 +103799,10 @@
         <v>10999</v>
       </c>
       <c r="E164" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F164" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G164" t="s">
         <v>3174</v>
@@ -103739,10 +103813,10 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>12056</v>
+        <v>12058</v>
       </c>
       <c r="B165" t="s">
-        <v>12057</v>
+        <v>12059</v>
       </c>
       <c r="C165" t="s">
         <v>11026</v>
@@ -103751,24 +103825,24 @@
         <v>11027</v>
       </c>
       <c r="E165" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F165" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G165" t="s">
         <v>1321</v>
       </c>
       <c r="H165" t="s">
-        <v>12058</v>
+        <v>12060</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>12059</v>
+        <v>12061</v>
       </c>
       <c r="B166" t="s">
-        <v>12060</v>
+        <v>12062</v>
       </c>
       <c r="C166" t="s">
         <v>11061</v>
@@ -103777,10 +103851,10 @@
         <v>11062</v>
       </c>
       <c r="E166" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F166" t="s">
-        <v>11679</v>
+        <v>11681</v>
       </c>
       <c r="G166" t="s">
         <v>2405</v>
@@ -103791,19 +103865,19 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>12061</v>
+        <v>12063</v>
       </c>
       <c r="B167" t="s">
-        <v>12062</v>
+        <v>12064</v>
       </c>
       <c r="C167" t="s">
-        <v>12063</v>
+        <v>12065</v>
       </c>
       <c r="D167" t="s">
-        <v>12064</v>
+        <v>12066</v>
       </c>
       <c r="E167" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F167" t="s">
         <v>4470</v>
@@ -103817,329 +103891,329 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>12065</v>
+        <v>12067</v>
       </c>
       <c r="B168" t="s">
-        <v>12066</v>
+        <v>12068</v>
       </c>
       <c r="C168" t="s">
-        <v>12067</v>
+        <v>12069</v>
       </c>
       <c r="D168" t="s">
-        <v>12068</v>
+        <v>12070</v>
       </c>
       <c r="E168" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F168" t="s">
-        <v>11686</v>
+        <v>11688</v>
       </c>
       <c r="G168" t="s">
-        <v>12069</v>
+        <v>12071</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>12070</v>
+        <v>12072</v>
       </c>
       <c r="B169" t="s">
-        <v>12071</v>
+        <v>12073</v>
       </c>
       <c r="C169" t="s">
-        <v>12072</v>
+        <v>12074</v>
       </c>
       <c r="D169" t="s">
-        <v>12073</v>
+        <v>12075</v>
       </c>
       <c r="E169" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F169" t="s">
         <v>4470</v>
       </c>
       <c r="G169" t="s">
-        <v>12074</v>
+        <v>12076</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>12075</v>
+        <v>12077</v>
       </c>
       <c r="B170" t="s">
-        <v>12076</v>
+        <v>12078</v>
       </c>
       <c r="C170" t="s">
-        <v>12077</v>
+        <v>12079</v>
       </c>
       <c r="D170" t="s">
-        <v>12078</v>
+        <v>12080</v>
       </c>
       <c r="E170" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F170" t="s">
         <v>4470</v>
       </c>
       <c r="G170" t="s">
-        <v>12079</v>
+        <v>12081</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>12080</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>12081</v>
+        <v>12083</v>
       </c>
       <c r="B221" t="s">
-        <v>12082</v>
+        <v>12084</v>
       </c>
       <c r="C221" t="s">
         <v>8423</v>
@@ -104148,7 +104222,7 @@
         <v>8424</v>
       </c>
       <c r="E221" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F221">
         <v>0.72199999999999998</v>
@@ -104160,15 +104234,15 @@
         <v>461</v>
       </c>
       <c r="I221" t="s">
-        <v>12083</v>
+        <v>12085</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>12084</v>
+        <v>12086</v>
       </c>
       <c r="B222" t="s">
-        <v>12085</v>
+        <v>12087</v>
       </c>
       <c r="C222" t="s">
         <v>8035</v>
@@ -104177,7 +104251,7 @@
         <v>8036</v>
       </c>
       <c r="E222" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F222">
         <v>0.71</v>
@@ -104189,15 +104263,15 @@
         <v>2275</v>
       </c>
       <c r="I222" t="s">
-        <v>12086</v>
+        <v>12088</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>12087</v>
+        <v>12089</v>
       </c>
       <c r="B223" t="s">
-        <v>12088</v>
+        <v>12090</v>
       </c>
       <c r="C223" t="s">
         <v>7327</v>
@@ -104206,7 +104280,7 @@
         <v>7328</v>
       </c>
       <c r="E223" t="s">
-        <v>12089</v>
+        <v>12091</v>
       </c>
       <c r="F223">
         <v>0.875</v>
@@ -104218,15 +104292,15 @@
         <v>3966</v>
       </c>
       <c r="I223" t="s">
-        <v>12090</v>
+        <v>12092</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>12091</v>
+        <v>12093</v>
       </c>
       <c r="B224" t="s">
-        <v>12092</v>
+        <v>12094</v>
       </c>
       <c r="C224" t="s">
         <v>5510</v>
@@ -104235,7 +104309,7 @@
         <v>5511</v>
       </c>
       <c r="E224" t="s">
-        <v>12089</v>
+        <v>12091</v>
       </c>
       <c r="F224">
         <v>0.89200000000000002</v>
@@ -104247,15 +104321,15 @@
         <v>2502</v>
       </c>
       <c r="I224" t="s">
-        <v>12093</v>
+        <v>12095</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>12094</v>
+        <v>12096</v>
       </c>
       <c r="B225" t="s">
-        <v>12095</v>
+        <v>12097</v>
       </c>
       <c r="C225" t="s">
         <v>5842</v>
@@ -104264,7 +104338,7 @@
         <v>5843</v>
       </c>
       <c r="E225" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F225">
         <v>0.79200000000000004</v>
@@ -104276,15 +104350,15 @@
         <v>2428</v>
       </c>
       <c r="I225" t="s">
-        <v>12096</v>
+        <v>12098</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>12097</v>
+        <v>12099</v>
       </c>
       <c r="B226" t="s">
-        <v>12098</v>
+        <v>12100</v>
       </c>
       <c r="C226" t="s">
         <v>8308</v>
@@ -104293,7 +104367,7 @@
         <v>8309</v>
       </c>
       <c r="E226" t="s">
-        <v>12089</v>
+        <v>12091</v>
       </c>
       <c r="F226">
         <v>0.86699999999999999</v>
@@ -104305,15 +104379,15 @@
         <v>1245</v>
       </c>
       <c r="I226" t="s">
-        <v>12099</v>
+        <v>12101</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>12100</v>
+        <v>12102</v>
       </c>
       <c r="B227" t="s">
-        <v>12101</v>
+        <v>12103</v>
       </c>
       <c r="C227" t="s">
         <v>9514</v>
@@ -104322,7 +104396,7 @@
         <v>9515</v>
       </c>
       <c r="E227" t="s">
-        <v>12089</v>
+        <v>12091</v>
       </c>
       <c r="F227">
         <v>0.85199999999999998</v>
@@ -104334,15 +104408,15 @@
         <v>1370</v>
       </c>
       <c r="I227" t="s">
-        <v>12102</v>
+        <v>12104</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>12103</v>
+        <v>12105</v>
       </c>
       <c r="B228" t="s">
-        <v>12104</v>
+        <v>12106</v>
       </c>
       <c r="C228" t="s">
         <v>5128</v>
@@ -104351,7 +104425,7 @@
         <v>5129</v>
       </c>
       <c r="E228" t="s">
-        <v>12089</v>
+        <v>12091</v>
       </c>
       <c r="F228">
         <v>0.86699999999999999</v>
@@ -104363,15 +104437,15 @@
         <v>2210</v>
       </c>
       <c r="I228" t="s">
-        <v>12105</v>
+        <v>12107</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>12106</v>
+        <v>12108</v>
       </c>
       <c r="B229" t="s">
-        <v>12107</v>
+        <v>12109</v>
       </c>
       <c r="C229" t="s">
         <v>8308</v>
@@ -104380,7 +104454,7 @@
         <v>8309</v>
       </c>
       <c r="E229" t="s">
-        <v>12089</v>
+        <v>12091</v>
       </c>
       <c r="F229">
         <v>0.86699999999999999</v>
@@ -104392,15 +104466,15 @@
         <v>1245</v>
       </c>
       <c r="I229" t="s">
-        <v>12108</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>12109</v>
+        <v>12111</v>
       </c>
       <c r="B230" t="s">
-        <v>12110</v>
+        <v>12112</v>
       </c>
       <c r="C230" t="s">
         <v>5128</v>
@@ -104409,7 +104483,7 @@
         <v>5129</v>
       </c>
       <c r="E230" t="s">
-        <v>12089</v>
+        <v>12091</v>
       </c>
       <c r="F230">
         <v>0.86699999999999999</v>
@@ -104421,71 +104495,71 @@
         <v>2210</v>
       </c>
       <c r="I230" t="s">
-        <v>12111</v>
+        <v>12113</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>12112</v>
+        <v>12114</v>
       </c>
       <c r="B231" t="s">
-        <v>12113</v>
+        <v>12115</v>
       </c>
       <c r="E231" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="I231" t="s">
-        <v>12114</v>
+        <v>12116</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>12115</v>
+        <v>12117</v>
       </c>
       <c r="B232" t="s">
-        <v>12116</v>
+        <v>12118</v>
       </c>
       <c r="E232" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="I232" t="s">
-        <v>12117</v>
+        <v>12119</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>12118</v>
+        <v>12120</v>
       </c>
       <c r="B233" t="s">
-        <v>12119</v>
+        <v>12121</v>
       </c>
       <c r="E233" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="I233" t="s">
-        <v>12120</v>
+        <v>12122</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>12121</v>
+        <v>12123</v>
       </c>
       <c r="B234" t="s">
-        <v>12122</v>
+        <v>12124</v>
       </c>
       <c r="E234" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="I234" t="s">
-        <v>12123</v>
+        <v>12125</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>12124</v>
+        <v>12126</v>
       </c>
       <c r="B235" t="s">
-        <v>12125</v>
+        <v>12127</v>
       </c>
       <c r="C235" t="s">
         <v>6897</v>
@@ -104494,7 +104568,7 @@
         <v>6898</v>
       </c>
       <c r="E235" t="s">
-        <v>12089</v>
+        <v>12091</v>
       </c>
       <c r="F235">
         <v>0.90200000000000002</v>
@@ -104506,15 +104580,15 @@
         <v>2781</v>
       </c>
       <c r="I235" t="s">
-        <v>12126</v>
+        <v>12128</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>12127</v>
+        <v>12129</v>
       </c>
       <c r="B236" t="s">
-        <v>12128</v>
+        <v>12130</v>
       </c>
       <c r="C236" t="s">
         <v>9648</v>
@@ -104523,7 +104597,7 @@
         <v>9649</v>
       </c>
       <c r="E236" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="F236">
         <v>0.7</v>
@@ -104535,71 +104609,71 @@
         <v>130</v>
       </c>
       <c r="I236" t="s">
-        <v>12129</v>
+        <v>12131</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>12130</v>
+        <v>12132</v>
       </c>
       <c r="B237" t="s">
-        <v>12131</v>
+        <v>12133</v>
       </c>
       <c r="E237" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="I237" t="s">
-        <v>12132</v>
+        <v>12134</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>12133</v>
+        <v>12135</v>
       </c>
       <c r="B238" t="s">
-        <v>12134</v>
+        <v>12136</v>
       </c>
       <c r="E238" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="I238" t="s">
-        <v>12135</v>
+        <v>12137</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>12136</v>
+        <v>12138</v>
       </c>
       <c r="B239" t="s">
-        <v>12137</v>
+        <v>12139</v>
       </c>
       <c r="E239" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="I239" t="s">
-        <v>12138</v>
+        <v>12140</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>12139</v>
+        <v>12141</v>
       </c>
       <c r="B240" t="s">
-        <v>12140</v>
+        <v>12142</v>
       </c>
       <c r="E240" t="s">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="I240" t="s">
-        <v>12141</v>
+        <v>12143</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>12142</v>
+        <v>12144</v>
       </c>
       <c r="B241" t="s">
-        <v>12143</v>
+        <v>12145</v>
       </c>
       <c r="C241" t="s">
         <v>6542</v>
@@ -104608,7 +104682,7 @@
         <v>6543</v>
       </c>
       <c r="E241" t="s">
-        <v>12089</v>
+        <v>12091</v>
       </c>
       <c r="F241">
         <v>0.85699999999999998</v>
@@ -104620,7 +104694,41 @@
         <v>1647</v>
       </c>
       <c r="I241" t="s">
-        <v>12144</v>
+        <v>12146</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>11461</v>
+      </c>
+      <c r="B242" t="s">
+        <v>11462</v>
+      </c>
+      <c r="E242" t="s">
+        <v>11676</v>
+      </c>
+      <c r="H242" t="s">
+        <v>461</v>
+      </c>
+      <c r="I242" t="s">
+        <v>12147</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>11606</v>
+      </c>
+      <c r="B243" t="s">
+        <v>11607</v>
+      </c>
+      <c r="E243" t="s">
+        <v>11676</v>
+      </c>
+      <c r="H243" t="s">
+        <v>2428</v>
+      </c>
+      <c r="I243" t="s">
+        <v>12148</v>
       </c>
     </row>
   </sheetData>
